--- a/survey-day2.xlsx
+++ b/survey-day2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N I T R O 5\Desktop\Survey Camp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A9F2A6-C76B-4010-9065-28C6DE1E165D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21009AD2-6650-4B2E-AA1A-1D6258BD582D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3964ACBB-EDE8-4741-84AB-18198C1E6C88}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{3964ACBB-EDE8-4741-84AB-18198C1E6C88}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="93">
   <si>
     <t>Institute of Engineering</t>
   </si>
@@ -304,10 +304,32 @@
 Bearing</t>
   </si>
   <si>
-    <t>13"</t>
+    <t>Gale's Table</t>
   </si>
   <si>
-    <t>Gale's Table</t>
+    <t>Mean 
+Distance</t>
+  </si>
+  <si>
+    <t>27"</t>
+  </si>
+  <si>
+    <t>41"</t>
+  </si>
+  <si>
+    <t>55"</t>
+  </si>
+  <si>
+    <t>1'9"</t>
+  </si>
+  <si>
+    <t>Corrected Co-Ordinate</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>EE</t>
   </si>
 </sst>
 </file>
@@ -359,7 +381,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -539,11 +561,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -667,22 +702,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -697,30 +746,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -741,11 +785,36 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1066,8 +1135,8 @@
   </sheetPr>
   <dimension ref="B1:AB254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O76" sqref="O76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1085,96 +1154,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
       <c r="H5" s="23"/>
     </row>
     <row r="6" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
       <c r="H6" s="23"/>
     </row>
     <row r="7" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -1229,20 +1298,20 @@
       <c r="AB9" s="1"/>
     </row>
     <row r="10" spans="3:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="D10" s="60" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="13">
         <v>0</v>
       </c>
-      <c r="F10" s="47">
+      <c r="F10" s="61">
         <f>ABS(E10-E12)</f>
         <v>1691306</v>
       </c>
-      <c r="G10" s="47">
+      <c r="G10" s="61">
         <v>1691301</v>
       </c>
       <c r="H10" s="26"/>
@@ -1252,17 +1321,17 @@
       <c r="J10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K10" s="47">
+      <c r="K10" s="61">
         <v>1691303</v>
       </c>
-      <c r="L10" s="46">
+      <c r="L10" s="63">
         <v>104657</v>
       </c>
-      <c r="M10" s="43">
+      <c r="M10" s="64">
         <v>1354423</v>
       </c>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -1278,13 +1347,13 @@
       <c r="AB10" s="1"/>
     </row>
     <row r="11" spans="3:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
       <c r="E11" s="13">
         <v>1800006</v>
       </c>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
       <c r="H11" s="26"/>
       <c r="I11" s="11">
         <v>84.481999999999999</v>
@@ -1292,11 +1361,11 @@
       <c r="J11" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="47"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="42"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -1312,17 +1381,17 @@
       <c r="AB11" s="1"/>
     </row>
     <row r="12" spans="3:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="48"/>
-      <c r="D12" s="48" t="s">
+      <c r="C12" s="60"/>
+      <c r="D12" s="60" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="13">
         <v>1691306</v>
       </c>
-      <c r="F12" s="47">
+      <c r="F12" s="61">
         <v>1691255</v>
       </c>
-      <c r="G12" s="47"/>
+      <c r="G12" s="61"/>
       <c r="H12" s="26"/>
       <c r="I12" s="11">
         <v>78.606999999999999</v>
@@ -1330,11 +1399,11 @@
       <c r="J12" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K12" s="47"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="42"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -1350,13 +1419,13 @@
       <c r="AB12" s="1"/>
     </row>
     <row r="13" spans="3:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
       <c r="E13" s="13">
         <v>3491301</v>
       </c>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
       <c r="H13" s="26"/>
       <c r="I13" s="11">
         <v>78.606999999999999</v>
@@ -1364,11 +1433,11 @@
       <c r="J13" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="47"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -1384,20 +1453,20 @@
       <c r="AB13" s="1"/>
     </row>
     <row r="14" spans="3:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="48" t="s">
+      <c r="D14" s="60" t="s">
         <v>14</v>
       </c>
       <c r="E14" s="13">
         <v>0</v>
       </c>
-      <c r="F14" s="47">
+      <c r="F14" s="61">
         <f>ABS(E14-E16)</f>
         <v>1431347</v>
       </c>
-      <c r="G14" s="47">
+      <c r="G14" s="61">
         <f t="shared" ref="G14" si="0">(F14+F16)/2</f>
         <v>1431343.5</v>
       </c>
@@ -1408,17 +1477,17 @@
       <c r="J14" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="47">
+      <c r="K14" s="61">
         <v>1431345</v>
       </c>
-      <c r="L14" s="46">
+      <c r="L14" s="63">
         <v>364615</v>
       </c>
-      <c r="M14" s="43">
+      <c r="M14" s="64">
         <v>985808</v>
       </c>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -1434,13 +1503,13 @@
       <c r="AB14" s="1"/>
     </row>
     <row r="15" spans="3:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
       <c r="E15" s="13">
         <v>1800000</v>
       </c>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
       <c r="H15" s="26"/>
       <c r="I15" s="11">
         <v>78.617000000000004</v>
@@ -1448,11 +1517,11 @@
       <c r="J15" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K15" s="47"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -1468,17 +1537,17 @@
       <c r="AB15" s="1"/>
     </row>
     <row r="16" spans="3:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="48"/>
-      <c r="D16" s="48" t="s">
+      <c r="C16" s="60"/>
+      <c r="D16" s="60" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="13">
         <v>1431347</v>
       </c>
-      <c r="F16" s="47">
+      <c r="F16" s="61">
         <v>1431340</v>
       </c>
-      <c r="G16" s="47"/>
+      <c r="G16" s="61"/>
       <c r="H16" s="26"/>
       <c r="I16" s="11">
         <v>82.356999999999999</v>
@@ -1486,11 +1555,11 @@
       <c r="J16" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K16" s="47"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="59"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -1506,13 +1575,13 @@
       <c r="AB16" s="1"/>
     </row>
     <row r="17" spans="3:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
       <c r="E17" s="13">
         <v>3231340</v>
       </c>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
       <c r="H17" s="26"/>
       <c r="I17" s="11">
         <v>82.355999999999995</v>
@@ -1520,11 +1589,11 @@
       <c r="J17" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K17" s="47"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="42"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="64"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="59"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -1540,20 +1609,20 @@
       <c r="AB17" s="1"/>
     </row>
     <row r="18" spans="3:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="48" t="s">
+      <c r="C18" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="48" t="s">
+      <c r="D18" s="60" t="s">
         <v>15</v>
       </c>
       <c r="E18" s="13">
         <v>0</v>
       </c>
-      <c r="F18" s="47">
+      <c r="F18" s="61">
         <f t="shared" ref="F18" si="1">ABS(E18-E20)</f>
         <v>1352141</v>
       </c>
-      <c r="G18" s="47">
+      <c r="G18" s="61">
         <f t="shared" ref="G18" si="2">(F18+F20)/2</f>
         <v>1352148.5</v>
       </c>
@@ -1564,17 +1633,17 @@
       <c r="J18" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K18" s="47">
+      <c r="K18" s="61">
         <v>1352150</v>
       </c>
-      <c r="L18" s="46">
+      <c r="L18" s="63">
         <v>443810</v>
       </c>
-      <c r="M18" s="43">
+      <c r="M18" s="64">
         <v>541958</v>
       </c>
-      <c r="N18" s="42"/>
-      <c r="O18" s="42"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="59"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -1590,13 +1659,13 @@
       <c r="AB18" s="1"/>
     </row>
     <row r="19" spans="3:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
       <c r="E19" s="13">
         <v>1795954</v>
       </c>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
       <c r="H19" s="26"/>
       <c r="I19" s="11">
         <v>82.353399999999993</v>
@@ -1604,11 +1673,11 @@
       <c r="J19" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K19" s="47"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="42"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="59"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -1624,17 +1693,17 @@
       <c r="AB19" s="1"/>
     </row>
     <row r="20" spans="3:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="48"/>
-      <c r="D20" s="48" t="s">
+      <c r="C20" s="60"/>
+      <c r="D20" s="60" t="s">
         <v>17</v>
       </c>
       <c r="E20" s="13">
         <v>1352141</v>
       </c>
-      <c r="F20" s="47">
+      <c r="F20" s="61">
         <v>1352156</v>
       </c>
-      <c r="G20" s="47"/>
+      <c r="G20" s="61"/>
       <c r="H20" s="26"/>
       <c r="I20" s="11">
         <v>83.654300000000006</v>
@@ -1642,11 +1711,11 @@
       <c r="J20" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K20" s="47"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="42"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="63"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="59"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -1662,13 +1731,13 @@
       <c r="AB20" s="1"/>
     </row>
     <row r="21" spans="3:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
       <c r="E21" s="13">
         <v>3152150</v>
       </c>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
       <c r="H21" s="26"/>
       <c r="I21" s="11">
         <v>83.652299999999997</v>
@@ -1676,11 +1745,11 @@
       <c r="J21" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K21" s="47"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="42"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="63"/>
+      <c r="M21" s="64"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="59"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -1696,20 +1765,20 @@
       <c r="AB21" s="1"/>
     </row>
     <row r="22" spans="3:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="48" t="s">
+      <c r="C22" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="48" t="s">
+      <c r="D22" s="60" t="s">
         <v>16</v>
       </c>
       <c r="E22" s="13">
         <v>0</v>
       </c>
-      <c r="F22" s="47">
+      <c r="F22" s="61">
         <f t="shared" ref="F22" si="3">ABS(E22-E24)</f>
         <v>1300946</v>
       </c>
-      <c r="G22" s="47">
+      <c r="G22" s="61">
         <f t="shared" ref="G22" si="4">(F22+F24)/2</f>
         <v>1300949</v>
       </c>
@@ -1720,17 +1789,17 @@
       <c r="J22" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K22" s="47">
+      <c r="K22" s="61">
         <v>1300951</v>
       </c>
-      <c r="L22" s="46">
+      <c r="L22" s="63">
         <v>495009</v>
       </c>
-      <c r="M22" s="43">
+      <c r="M22" s="64">
         <v>42949</v>
       </c>
-      <c r="N22" s="42"/>
-      <c r="O22" s="42"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="59"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
@@ -1746,13 +1815,13 @@
       <c r="AB22" s="1"/>
     </row>
     <row r="23" spans="3:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
       <c r="E23" s="13">
         <v>1795959</v>
       </c>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
       <c r="H23" s="26"/>
       <c r="I23" s="11">
         <v>83.691000000000003</v>
@@ -1760,11 +1829,11 @@
       <c r="J23" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K23" s="47"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="42"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="59"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -1780,17 +1849,17 @@
       <c r="AB23" s="1"/>
     </row>
     <row r="24" spans="3:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C24" s="48"/>
-      <c r="D24" s="48" t="s">
+      <c r="C24" s="60"/>
+      <c r="D24" s="60" t="s">
         <v>18</v>
       </c>
       <c r="E24" s="13">
         <v>1300946</v>
       </c>
-      <c r="F24" s="47">
+      <c r="F24" s="61">
         <v>1300952</v>
       </c>
-      <c r="G24" s="47"/>
+      <c r="G24" s="61"/>
       <c r="H24" s="26"/>
       <c r="I24" s="11">
         <v>70.617999999999995</v>
@@ -1798,11 +1867,11 @@
       <c r="J24" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K24" s="47"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="59"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -1818,13 +1887,13 @@
       <c r="AB24" s="1"/>
     </row>
     <row r="25" spans="3:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
       <c r="E25" s="13">
         <v>3100951</v>
       </c>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
       <c r="H25" s="26"/>
       <c r="I25" s="11">
         <v>70.617999999999995</v>
@@ -1832,11 +1901,11 @@
       <c r="J25" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K25" s="47"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="43"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="42"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="64"/>
+      <c r="N25" s="59"/>
+      <c r="O25" s="59"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
@@ -1852,20 +1921,20 @@
       <c r="AB25" s="1"/>
     </row>
     <row r="26" spans="3:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="48" t="s">
+      <c r="C26" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="48" t="s">
+      <c r="D26" s="60" t="s">
         <v>17</v>
       </c>
       <c r="E26" s="13">
         <v>0</v>
       </c>
-      <c r="F26" s="47">
+      <c r="F26" s="61">
         <f t="shared" ref="F26" si="5">ABS(E26-E28)</f>
         <v>1643640</v>
       </c>
-      <c r="G26" s="47">
+      <c r="G26" s="61">
         <f t="shared" ref="G26" si="6">(F26+F28)/2</f>
         <v>1643639.5</v>
       </c>
@@ -1876,17 +1945,17 @@
       <c r="J26" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K26" s="47">
+      <c r="K26" s="61">
         <v>1643641</v>
       </c>
-      <c r="L26" s="46">
+      <c r="L26" s="63">
         <v>152319</v>
       </c>
-      <c r="M26" s="43">
+      <c r="M26" s="64">
         <v>3490630</v>
       </c>
-      <c r="N26" s="42"/>
-      <c r="O26" s="42"/>
+      <c r="N26" s="59"/>
+      <c r="O26" s="59"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
@@ -1902,13 +1971,13 @@
       <c r="AB26" s="1"/>
     </row>
     <row r="27" spans="3:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
       <c r="E27" s="13">
         <v>1800000</v>
       </c>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
       <c r="H27" s="26"/>
       <c r="I27" s="11">
         <v>70.647000000000006</v>
@@ -1916,11 +1985,11 @@
       <c r="J27" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K27" s="47"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="43"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="42"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="64"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="59"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
@@ -1936,17 +2005,17 @@
       <c r="AB27" s="1"/>
     </row>
     <row r="28" spans="3:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="48"/>
-      <c r="D28" s="48" t="s">
+      <c r="C28" s="60"/>
+      <c r="D28" s="60" t="s">
         <v>19</v>
       </c>
       <c r="E28" s="13">
         <v>1643640</v>
       </c>
-      <c r="F28" s="47">
+      <c r="F28" s="61">
         <v>1643639</v>
       </c>
-      <c r="G28" s="47"/>
+      <c r="G28" s="61"/>
       <c r="H28" s="26"/>
       <c r="I28" s="11">
         <v>77.882999999999996</v>
@@ -1954,11 +2023,11 @@
       <c r="J28" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K28" s="47"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="43"/>
-      <c r="N28" s="42"/>
-      <c r="O28" s="42"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="59"/>
+      <c r="O28" s="59"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
@@ -1974,13 +2043,13 @@
       <c r="AB28" s="1"/>
     </row>
     <row r="29" spans="3:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
       <c r="E29" s="13">
         <v>3443639</v>
       </c>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
       <c r="H29" s="26"/>
       <c r="I29" s="11">
         <v>77.882999999999996</v>
@@ -1988,11 +2057,11 @@
       <c r="J29" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K29" s="47"/>
-      <c r="L29" s="46"/>
-      <c r="M29" s="43"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="42"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="64"/>
+      <c r="N29" s="59"/>
+      <c r="O29" s="59"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -2008,20 +2077,20 @@
       <c r="AB29" s="1"/>
     </row>
     <row r="30" spans="3:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C30" s="48" t="s">
+      <c r="C30" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="48" t="s">
+      <c r="D30" s="60" t="s">
         <v>18</v>
       </c>
       <c r="E30" s="13">
         <v>0</v>
       </c>
-      <c r="F30" s="47">
+      <c r="F30" s="61">
         <f t="shared" ref="F30" si="7">ABS(E30-E32)</f>
         <v>1504821</v>
       </c>
-      <c r="G30" s="47">
+      <c r="G30" s="61">
         <f t="shared" ref="G30" si="8">(F30+F32)/2</f>
         <v>1504822</v>
       </c>
@@ -2032,17 +2101,17 @@
       <c r="J30" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K30" s="47">
+      <c r="K30" s="61">
         <v>1504824</v>
       </c>
-      <c r="L30" s="46">
+      <c r="L30" s="63">
         <v>291136</v>
       </c>
-      <c r="M30" s="43">
+      <c r="M30" s="64">
         <v>3195454</v>
       </c>
-      <c r="N30" s="42"/>
-      <c r="O30" s="42"/>
+      <c r="N30" s="59"/>
+      <c r="O30" s="59"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -2058,13 +2127,13 @@
       <c r="AB30" s="1"/>
     </row>
     <row r="31" spans="3:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
       <c r="E31" s="13">
         <v>1800007</v>
       </c>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
       <c r="H31" s="26"/>
       <c r="I31" s="11">
         <v>77.881</v>
@@ -2072,11 +2141,11 @@
       <c r="J31" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K31" s="47"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="43"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="42"/>
+      <c r="K31" s="61"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="64"/>
+      <c r="N31" s="59"/>
+      <c r="O31" s="59"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
@@ -2092,17 +2161,17 @@
       <c r="AB31" s="1"/>
     </row>
     <row r="32" spans="3:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C32" s="48"/>
-      <c r="D32" s="48" t="s">
+      <c r="C32" s="60"/>
+      <c r="D32" s="60" t="s">
         <v>20</v>
       </c>
       <c r="E32" s="13">
         <v>1504821</v>
       </c>
-      <c r="F32" s="47">
+      <c r="F32" s="61">
         <v>1504823</v>
       </c>
-      <c r="G32" s="47"/>
+      <c r="G32" s="61"/>
       <c r="H32" s="26"/>
       <c r="I32" s="11">
         <v>93.960999999999999</v>
@@ -2110,11 +2179,11 @@
       <c r="J32" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K32" s="47"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="43"/>
-      <c r="N32" s="42"/>
-      <c r="O32" s="42"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="64"/>
+      <c r="N32" s="59"/>
+      <c r="O32" s="59"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
@@ -2130,13 +2199,13 @@
       <c r="AB32" s="1"/>
     </row>
     <row r="33" spans="3:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
       <c r="E33" s="13">
         <v>3304830</v>
       </c>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
       <c r="H33" s="26"/>
       <c r="I33" s="11">
         <v>93.96</v>
@@ -2144,11 +2213,11 @@
       <c r="J33" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K33" s="47"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="43"/>
-      <c r="N33" s="42"/>
-      <c r="O33" s="42"/>
+      <c r="K33" s="61"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="64"/>
+      <c r="N33" s="59"/>
+      <c r="O33" s="59"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
@@ -2164,20 +2233,20 @@
       <c r="AB33" s="1"/>
     </row>
     <row r="34" spans="3:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C34" s="48" t="s">
+      <c r="C34" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="D34" s="48" t="s">
+      <c r="D34" s="60" t="s">
         <v>19</v>
       </c>
       <c r="E34" s="13">
         <v>0</v>
       </c>
-      <c r="F34" s="47">
+      <c r="F34" s="61">
         <f t="shared" ref="F34" si="9">ABS(E34-E36)</f>
         <v>1313156</v>
       </c>
-      <c r="G34" s="47">
+      <c r="G34" s="61">
         <f t="shared" ref="G34" si="10">(F34+F36)/2</f>
         <v>1313156</v>
       </c>
@@ -2188,17 +2257,17 @@
       <c r="J34" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K34" s="47">
+      <c r="K34" s="61">
         <v>1313159</v>
       </c>
-      <c r="L34" s="46">
+      <c r="L34" s="63">
         <v>482801</v>
       </c>
-      <c r="M34" s="43">
+      <c r="M34" s="64">
         <v>2712653</v>
       </c>
-      <c r="N34" s="42"/>
-      <c r="O34" s="42"/>
+      <c r="N34" s="59"/>
+      <c r="O34" s="59"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
@@ -2214,13 +2283,13 @@
       <c r="AB34" s="1"/>
     </row>
     <row r="35" spans="3:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
       <c r="E35" s="13">
         <v>1800008</v>
       </c>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
       <c r="H35" s="26"/>
       <c r="I35" s="11">
         <v>93.965000000000003</v>
@@ -2228,11 +2297,11 @@
       <c r="J35" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K35" s="47"/>
-      <c r="L35" s="46"/>
-      <c r="M35" s="43"/>
-      <c r="N35" s="42"/>
-      <c r="O35" s="42"/>
+      <c r="K35" s="61"/>
+      <c r="L35" s="63"/>
+      <c r="M35" s="64"/>
+      <c r="N35" s="59"/>
+      <c r="O35" s="59"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
@@ -2248,18 +2317,18 @@
       <c r="AB35" s="1"/>
     </row>
     <row r="36" spans="3:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C36" s="48"/>
-      <c r="D36" s="48" t="s">
+      <c r="C36" s="60"/>
+      <c r="D36" s="60" t="s">
         <v>21</v>
       </c>
       <c r="E36" s="13">
         <v>1313156</v>
       </c>
-      <c r="F36" s="47">
+      <c r="F36" s="61">
         <f t="shared" ref="F36" si="11">ABS(E36-E38)</f>
         <v>1313156</v>
       </c>
-      <c r="G36" s="47"/>
+      <c r="G36" s="61"/>
       <c r="H36" s="26"/>
       <c r="I36" s="11">
         <v>89.105000000000004</v>
@@ -2267,11 +2336,11 @@
       <c r="J36" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K36" s="47"/>
-      <c r="L36" s="46"/>
-      <c r="M36" s="43"/>
-      <c r="N36" s="42"/>
-      <c r="O36" s="42"/>
+      <c r="K36" s="61"/>
+      <c r="L36" s="63"/>
+      <c r="M36" s="64"/>
+      <c r="N36" s="59"/>
+      <c r="O36" s="59"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
@@ -2287,13 +2356,13 @@
       <c r="AB36" s="1"/>
     </row>
     <row r="37" spans="3:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
       <c r="E37" s="13">
         <v>3113204</v>
       </c>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
       <c r="H37" s="26"/>
       <c r="I37" s="11">
         <v>89.105999999999995</v>
@@ -2301,11 +2370,11 @@
       <c r="J37" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K37" s="47"/>
-      <c r="L37" s="46"/>
-      <c r="M37" s="43"/>
-      <c r="N37" s="42"/>
-      <c r="O37" s="42"/>
+      <c r="K37" s="61"/>
+      <c r="L37" s="63"/>
+      <c r="M37" s="64"/>
+      <c r="N37" s="59"/>
+      <c r="O37" s="59"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
@@ -2321,20 +2390,20 @@
       <c r="AB37" s="1"/>
     </row>
     <row r="38" spans="3:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C38" s="48" t="s">
+      <c r="C38" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="48" t="s">
+      <c r="D38" s="60" t="s">
         <v>20</v>
       </c>
       <c r="E38" s="13">
         <v>0</v>
       </c>
-      <c r="F38" s="47">
+      <c r="F38" s="61">
         <f t="shared" ref="F38" si="12">ABS(E38-E40)</f>
         <v>1305337</v>
       </c>
-      <c r="G38" s="47">
+      <c r="G38" s="61">
         <f t="shared" ref="G38" si="13">(F38+F40)/2</f>
         <v>1305333</v>
       </c>
@@ -2345,17 +2414,17 @@
       <c r="J38" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K38" s="47">
+      <c r="K38" s="61">
         <v>1305335</v>
       </c>
-      <c r="L38" s="46">
+      <c r="L38" s="63">
         <v>490625</v>
       </c>
-      <c r="M38" s="43">
+      <c r="M38" s="64">
         <v>2222028</v>
       </c>
-      <c r="N38" s="42"/>
-      <c r="O38" s="42"/>
+      <c r="N38" s="59"/>
+      <c r="O38" s="59"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
@@ -2371,13 +2440,13 @@
       <c r="AB38" s="1"/>
     </row>
     <row r="39" spans="3:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
       <c r="E39" s="13">
         <v>1800002</v>
       </c>
-      <c r="F39" s="47"/>
-      <c r="G39" s="47"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="61"/>
       <c r="H39" s="26"/>
       <c r="I39" s="11">
         <v>89.1</v>
@@ -2385,11 +2454,11 @@
       <c r="J39" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K39" s="47"/>
-      <c r="L39" s="46"/>
-      <c r="M39" s="43"/>
-      <c r="N39" s="42"/>
-      <c r="O39" s="42"/>
+      <c r="K39" s="61"/>
+      <c r="L39" s="63"/>
+      <c r="M39" s="64"/>
+      <c r="N39" s="59"/>
+      <c r="O39" s="59"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
@@ -2405,17 +2474,17 @@
       <c r="AB39" s="1"/>
     </row>
     <row r="40" spans="3:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C40" s="48"/>
-      <c r="D40" s="48" t="s">
+      <c r="C40" s="60"/>
+      <c r="D40" s="60" t="s">
         <v>22</v>
       </c>
       <c r="E40" s="13">
         <v>1305337</v>
       </c>
-      <c r="F40" s="47">
+      <c r="F40" s="61">
         <v>1305329</v>
       </c>
-      <c r="G40" s="47"/>
+      <c r="G40" s="61"/>
       <c r="H40" s="26"/>
       <c r="I40" s="11">
         <v>69.519000000000005</v>
@@ -2423,11 +2492,11 @@
       <c r="J40" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K40" s="47"/>
-      <c r="L40" s="46"/>
-      <c r="M40" s="43"/>
-      <c r="N40" s="42"/>
-      <c r="O40" s="42"/>
+      <c r="K40" s="61"/>
+      <c r="L40" s="63"/>
+      <c r="M40" s="64"/>
+      <c r="N40" s="59"/>
+      <c r="O40" s="59"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
@@ -2443,13 +2512,13 @@
       <c r="AB40" s="1"/>
     </row>
     <row r="41" spans="3:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C41" s="48"/>
-      <c r="D41" s="48"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="60"/>
       <c r="E41" s="13">
         <v>3105331</v>
       </c>
-      <c r="F41" s="47"/>
-      <c r="G41" s="47"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="61"/>
       <c r="H41" s="26"/>
       <c r="I41" s="11">
         <v>69.518000000000001</v>
@@ -2457,11 +2526,11 @@
       <c r="J41" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K41" s="47"/>
-      <c r="L41" s="46"/>
-      <c r="M41" s="43"/>
-      <c r="N41" s="42"/>
-      <c r="O41" s="42"/>
+      <c r="K41" s="61"/>
+      <c r="L41" s="63"/>
+      <c r="M41" s="64"/>
+      <c r="N41" s="59"/>
+      <c r="O41" s="59"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
@@ -2477,20 +2546,20 @@
       <c r="AB41" s="1"/>
     </row>
     <row r="42" spans="3:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C42" s="48" t="s">
+      <c r="C42" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="48" t="s">
+      <c r="D42" s="60" t="s">
         <v>21</v>
       </c>
       <c r="E42" s="13">
         <v>0</v>
       </c>
-      <c r="F42" s="47">
+      <c r="F42" s="61">
         <f t="shared" ref="F42" si="14">ABS(E42-E44)</f>
         <v>1672852</v>
       </c>
-      <c r="G42" s="47">
+      <c r="G42" s="61">
         <f t="shared" ref="G42" si="15">(F42+F44)/2</f>
         <v>1672853</v>
       </c>
@@ -2501,17 +2570,17 @@
       <c r="J42" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K42" s="47">
+      <c r="K42" s="61">
         <v>1672855</v>
       </c>
-      <c r="L42" s="46">
+      <c r="L42" s="63">
         <v>123105</v>
       </c>
-      <c r="M42" s="43">
+      <c r="M42" s="64">
         <v>2094923</v>
       </c>
-      <c r="N42" s="42"/>
-      <c r="O42" s="42"/>
+      <c r="N42" s="59"/>
+      <c r="O42" s="59"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
@@ -2527,13 +2596,13 @@
       <c r="AB42" s="1"/>
     </row>
     <row r="43" spans="3:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C43" s="48"/>
-      <c r="D43" s="48"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="60"/>
       <c r="E43" s="13">
         <v>1795952</v>
       </c>
-      <c r="F43" s="47"/>
-      <c r="G43" s="47"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="61"/>
       <c r="H43" s="26"/>
       <c r="I43" s="11">
         <v>69.519000000000005</v>
@@ -2541,11 +2610,11 @@
       <c r="J43" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K43" s="47"/>
-      <c r="L43" s="46"/>
-      <c r="M43" s="43"/>
-      <c r="N43" s="42"/>
-      <c r="O43" s="42"/>
+      <c r="K43" s="61"/>
+      <c r="L43" s="63"/>
+      <c r="M43" s="64"/>
+      <c r="N43" s="59"/>
+      <c r="O43" s="59"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
@@ -2561,17 +2630,17 @@
       <c r="AB43" s="1"/>
     </row>
     <row r="44" spans="3:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C44" s="48"/>
-      <c r="D44" s="48" t="s">
+      <c r="C44" s="60"/>
+      <c r="D44" s="60" t="s">
         <v>23</v>
       </c>
       <c r="E44" s="13">
         <v>1672852</v>
       </c>
-      <c r="F44" s="47">
+      <c r="F44" s="61">
         <v>1672854</v>
       </c>
-      <c r="G44" s="47"/>
+      <c r="G44" s="61"/>
       <c r="H44" s="26"/>
       <c r="I44" s="11">
         <v>90.915999999999997</v>
@@ -2579,11 +2648,11 @@
       <c r="J44" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K44" s="47"/>
-      <c r="L44" s="46"/>
-      <c r="M44" s="43"/>
-      <c r="N44" s="42"/>
-      <c r="O44" s="42"/>
+      <c r="K44" s="61"/>
+      <c r="L44" s="63"/>
+      <c r="M44" s="64"/>
+      <c r="N44" s="59"/>
+      <c r="O44" s="59"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
@@ -2599,13 +2668,13 @@
       <c r="AB44" s="1"/>
     </row>
     <row r="45" spans="3:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C45" s="48"/>
-      <c r="D45" s="48"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="60"/>
       <c r="E45" s="13">
         <v>3472846</v>
       </c>
-      <c r="F45" s="47"/>
-      <c r="G45" s="47"/>
+      <c r="F45" s="61"/>
+      <c r="G45" s="61"/>
       <c r="H45" s="26"/>
       <c r="I45" s="11">
         <v>90.915999999999997</v>
@@ -2613,11 +2682,11 @@
       <c r="J45" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K45" s="47"/>
-      <c r="L45" s="46"/>
-      <c r="M45" s="43"/>
-      <c r="N45" s="42"/>
-      <c r="O45" s="42"/>
+      <c r="K45" s="61"/>
+      <c r="L45" s="63"/>
+      <c r="M45" s="64"/>
+      <c r="N45" s="59"/>
+      <c r="O45" s="59"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
@@ -2633,20 +2702,20 @@
       <c r="AB45" s="1"/>
     </row>
     <row r="46" spans="3:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C46" s="48" t="s">
+      <c r="C46" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="D46" s="48" t="s">
+      <c r="D46" s="60" t="s">
         <v>22</v>
       </c>
       <c r="E46" s="13">
         <v>0</v>
       </c>
-      <c r="F46" s="47">
+      <c r="F46" s="61">
         <f t="shared" ref="F46" si="16">ABS(E46-E48)</f>
         <v>1164154</v>
       </c>
-      <c r="G46" s="47">
+      <c r="G46" s="61">
         <f t="shared" ref="G46" si="17">(F46+F48)/2</f>
         <v>1164155.5</v>
       </c>
@@ -2657,17 +2726,17 @@
       <c r="J46" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K46" s="47">
+      <c r="K46" s="61">
         <v>1164157</v>
       </c>
-      <c r="L46" s="46">
+      <c r="L46" s="63">
         <v>631803</v>
       </c>
-      <c r="M46" s="43">
+      <c r="M46" s="64">
         <v>1463120</v>
       </c>
-      <c r="N46" s="42"/>
-      <c r="O46" s="42"/>
+      <c r="N46" s="59"/>
+      <c r="O46" s="59"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
@@ -2683,13 +2752,13 @@
       <c r="AB46" s="1"/>
     </row>
     <row r="47" spans="3:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C47" s="48"/>
-      <c r="D47" s="48"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="60"/>
       <c r="E47" s="13">
         <v>1800002</v>
       </c>
-      <c r="F47" s="47"/>
-      <c r="G47" s="47"/>
+      <c r="F47" s="61"/>
+      <c r="G47" s="61"/>
       <c r="H47" s="26"/>
       <c r="I47" s="11">
         <v>90.912000000000006</v>
@@ -2697,11 +2766,11 @@
       <c r="J47" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K47" s="47"/>
-      <c r="L47" s="46"/>
-      <c r="M47" s="43"/>
-      <c r="N47" s="42"/>
-      <c r="O47" s="42"/>
+      <c r="K47" s="61"/>
+      <c r="L47" s="63"/>
+      <c r="M47" s="64"/>
+      <c r="N47" s="59"/>
+      <c r="O47" s="59"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
@@ -2717,17 +2786,17 @@
       <c r="AB47" s="1"/>
     </row>
     <row r="48" spans="3:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C48" s="48"/>
-      <c r="D48" s="48" t="s">
+      <c r="C48" s="60"/>
+      <c r="D48" s="60" t="s">
         <v>14</v>
       </c>
       <c r="E48" s="13">
         <v>1164154</v>
       </c>
-      <c r="F48" s="47">
+      <c r="F48" s="61">
         <v>1164157</v>
       </c>
-      <c r="G48" s="47"/>
+      <c r="G48" s="61"/>
       <c r="H48" s="26"/>
       <c r="I48" s="11">
         <v>84.480999999999995</v>
@@ -2735,11 +2804,11 @@
       <c r="J48" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K48" s="47"/>
-      <c r="L48" s="46"/>
-      <c r="M48" s="43"/>
-      <c r="N48" s="42"/>
-      <c r="O48" s="42"/>
+      <c r="K48" s="61"/>
+      <c r="L48" s="63"/>
+      <c r="M48" s="64"/>
+      <c r="N48" s="59"/>
+      <c r="O48" s="59"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
@@ -2755,13 +2824,13 @@
       <c r="AB48" s="1"/>
     </row>
     <row r="49" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C49" s="48"/>
-      <c r="D49" s="48"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="60"/>
       <c r="E49" s="13">
         <v>2964159</v>
       </c>
-      <c r="F49" s="47"/>
-      <c r="G49" s="47"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61"/>
       <c r="H49" s="26"/>
       <c r="I49" s="11">
         <v>84.480999999999995</v>
@@ -2769,11 +2838,11 @@
       <c r="J49" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K49" s="47"/>
-      <c r="L49" s="46"/>
-      <c r="M49" s="43"/>
-      <c r="N49" s="42"/>
-      <c r="O49" s="42"/>
+      <c r="K49" s="61"/>
+      <c r="L49" s="63"/>
+      <c r="M49" s="64"/>
+      <c r="N49" s="59"/>
+      <c r="O49" s="59"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
@@ -3035,17 +3104,17 @@
       <c r="AB57" s="1"/>
     </row>
     <row r="58" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="C58" s="42" t="s">
+      <c r="C58" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="D58" s="42"/>
-      <c r="E58" s="42"/>
-      <c r="F58" s="42"/>
-      <c r="G58" s="42"/>
-      <c r="H58" s="42"/>
-      <c r="I58" s="42"/>
-      <c r="J58" s="42"/>
-      <c r="K58" s="42"/>
+      <c r="D58" s="59"/>
+      <c r="E58" s="59"/>
+      <c r="F58" s="59"/>
+      <c r="G58" s="59"/>
+      <c r="H58" s="59"/>
+      <c r="I58" s="59"/>
+      <c r="J58" s="59"/>
+      <c r="K58" s="59"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
@@ -3093,19 +3162,19 @@
       <c r="AB59" s="1"/>
     </row>
     <row r="60" spans="2:28" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="41" t="s">
+      <c r="B60" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="C60" s="41" t="s">
+      <c r="C60" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="D60" s="44" t="s">
+      <c r="D60" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="E60" s="44" t="s">
+      <c r="E60" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="F60" s="41" t="s">
+      <c r="F60" s="51" t="s">
         <v>34</v>
       </c>
       <c r="G60" s="53" t="s">
@@ -3114,22 +3183,22 @@
       <c r="H60" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="I60" s="41" t="s">
+      <c r="I60" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="J60" s="41"/>
-      <c r="K60" s="41" t="s">
+      <c r="J60" s="51"/>
+      <c r="K60" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="L60" s="41"/>
-      <c r="M60" s="41" t="s">
+      <c r="L60" s="51"/>
+      <c r="M60" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="N60" s="41"/>
-      <c r="O60" s="44" t="s">
+      <c r="N60" s="51"/>
+      <c r="O60" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="P60" s="41"/>
+      <c r="P60" s="51"/>
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
@@ -3144,11 +3213,11 @@
       <c r="AB60" s="1"/>
     </row>
     <row r="61" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B61" s="41"/>
-      <c r="C61" s="41"/>
-      <c r="D61" s="41"/>
-      <c r="E61" s="41"/>
-      <c r="F61" s="41"/>
+      <c r="B61" s="51"/>
+      <c r="C61" s="51"/>
+      <c r="D61" s="51"/>
+      <c r="E61" s="51"/>
+      <c r="F61" s="51"/>
       <c r="G61" s="54"/>
       <c r="H61" s="53"/>
       <c r="I61" s="27" t="s">
@@ -3243,9 +3312,9 @@
       <c r="D63" s="27">
         <v>78.612300000000005</v>
       </c>
-      <c r="E63" s="61"/>
-      <c r="F63" s="61"/>
-      <c r="G63" s="61"/>
+      <c r="E63" s="47"/>
+      <c r="F63" s="47"/>
+      <c r="G63" s="47"/>
       <c r="H63" s="28">
         <f>M10</f>
         <v>1354423</v>
@@ -3289,8 +3358,8 @@
       <c r="B64" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C64" s="61"/>
-      <c r="D64" s="61"/>
+      <c r="C64" s="47"/>
+      <c r="D64" s="47"/>
       <c r="E64" s="28">
         <f>G14</f>
         <v>1431343.5</v>
@@ -3301,12 +3370,12 @@
       <c r="G64" s="28">
         <v>1431346</v>
       </c>
-      <c r="H64" s="61"/>
-      <c r="I64" s="61"/>
-      <c r="J64" s="61"/>
-      <c r="K64" s="61"/>
-      <c r="L64" s="61"/>
-      <c r="M64" s="61"/>
+      <c r="H64" s="47"/>
+      <c r="I64" s="47"/>
+      <c r="J64" s="47"/>
+      <c r="K64" s="47"/>
+      <c r="L64" s="47"/>
+      <c r="M64" s="47"/>
       <c r="N64" s="27"/>
       <c r="O64" s="27">
         <f>O62+M63</f>
@@ -3337,9 +3406,9 @@
       <c r="D65" s="27">
         <v>82.355500000000006</v>
       </c>
-      <c r="E65" s="61"/>
-      <c r="F65" s="61"/>
-      <c r="G65" s="61"/>
+      <c r="E65" s="47"/>
+      <c r="F65" s="47"/>
+      <c r="G65" s="47"/>
       <c r="H65" s="28">
         <v>985809</v>
       </c>
@@ -3365,8 +3434,8 @@
         <f t="shared" ref="N65:N81" si="18">J65-L65</f>
         <v>81.351478756996883</v>
       </c>
-      <c r="O65" s="61"/>
-      <c r="P65" s="61"/>
+      <c r="O65" s="47"/>
+      <c r="P65" s="47"/>
       <c r="Q65" s="20"/>
       <c r="R65" s="20"/>
       <c r="S65" s="20"/>
@@ -3384,8 +3453,8 @@
       <c r="B66" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C66" s="61"/>
-      <c r="D66" s="61"/>
+      <c r="C66" s="47"/>
+      <c r="D66" s="47"/>
       <c r="E66" s="28">
         <f>G18</f>
         <v>1352148.5</v>
@@ -3396,12 +3465,12 @@
       <c r="G66" s="28">
         <v>1352151</v>
       </c>
-      <c r="H66" s="61"/>
-      <c r="I66" s="61"/>
-      <c r="J66" s="61"/>
-      <c r="K66" s="61"/>
-      <c r="L66" s="61"/>
-      <c r="M66" s="61"/>
+      <c r="H66" s="47"/>
+      <c r="I66" s="47"/>
+      <c r="J66" s="47"/>
+      <c r="K66" s="47"/>
+      <c r="L66" s="47"/>
+      <c r="M66" s="47"/>
       <c r="N66" s="27"/>
       <c r="O66" s="27">
         <f>O64+M65</f>
@@ -3432,9 +3501,9 @@
       <c r="D67" s="27">
         <v>83.671899999999994</v>
       </c>
-      <c r="E67" s="61"/>
-      <c r="F67" s="61"/>
-      <c r="G67" s="61"/>
+      <c r="E67" s="47"/>
+      <c r="F67" s="47"/>
+      <c r="G67" s="47"/>
       <c r="H67" s="28">
         <v>542000</v>
       </c>
@@ -3460,8 +3529,8 @@
         <f t="shared" si="18"/>
         <v>67.980026370522523</v>
       </c>
-      <c r="O67" s="61"/>
-      <c r="P67" s="61"/>
+      <c r="O67" s="47"/>
+      <c r="P67" s="47"/>
       <c r="Q67" s="20"/>
       <c r="R67" s="20"/>
       <c r="S67" s="20"/>
@@ -3479,8 +3548,8 @@
       <c r="B68" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C68" s="61"/>
-      <c r="D68" s="61"/>
+      <c r="C68" s="47"/>
+      <c r="D68" s="47"/>
       <c r="E68" s="28">
         <f>G22</f>
         <v>1300949</v>
@@ -3491,12 +3560,12 @@
       <c r="G68" s="28">
         <v>1300950</v>
       </c>
-      <c r="H68" s="61"/>
-      <c r="I68" s="61"/>
-      <c r="J68" s="61"/>
-      <c r="K68" s="61"/>
-      <c r="L68" s="61"/>
-      <c r="M68" s="61"/>
+      <c r="H68" s="47"/>
+      <c r="I68" s="47"/>
+      <c r="J68" s="47"/>
+      <c r="K68" s="47"/>
+      <c r="L68" s="47"/>
+      <c r="M68" s="47"/>
       <c r="N68" s="27"/>
       <c r="O68" s="27">
         <f>O66+M67</f>
@@ -3527,9 +3596,9 @@
       <c r="D69" s="27">
         <v>70.631299999999996</v>
       </c>
-      <c r="E69" s="61"/>
-      <c r="F69" s="61"/>
-      <c r="G69" s="61"/>
+      <c r="E69" s="47"/>
+      <c r="F69" s="47"/>
+      <c r="G69" s="47"/>
       <c r="H69" s="28">
         <v>42950</v>
       </c>
@@ -3555,8 +3624,8 @@
         <f t="shared" si="18"/>
         <v>5.5408546985820433</v>
       </c>
-      <c r="O69" s="61"/>
-      <c r="P69" s="61"/>
+      <c r="O69" s="47"/>
+      <c r="P69" s="47"/>
       <c r="Q69" s="20"/>
       <c r="R69" s="20"/>
       <c r="S69" s="20"/>
@@ -3574,8 +3643,8 @@
       <c r="B70" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C70" s="61"/>
-      <c r="D70" s="61"/>
+      <c r="C70" s="47"/>
+      <c r="D70" s="47"/>
       <c r="E70" s="28">
         <f>G26</f>
         <v>1643639.5</v>
@@ -3587,12 +3656,12 @@
         <f>K26</f>
         <v>1643641</v>
       </c>
-      <c r="H70" s="61"/>
-      <c r="I70" s="61"/>
-      <c r="J70" s="61"/>
-      <c r="K70" s="61"/>
-      <c r="L70" s="61"/>
-      <c r="M70" s="61"/>
+      <c r="H70" s="47"/>
+      <c r="I70" s="47"/>
+      <c r="J70" s="47"/>
+      <c r="K70" s="47"/>
+      <c r="L70" s="47"/>
+      <c r="M70" s="47"/>
       <c r="N70" s="27"/>
       <c r="O70" s="27">
         <f>O68+M69</f>
@@ -3623,9 +3692,9 @@
       <c r="D71" s="27">
         <v>77.882300000000001</v>
       </c>
-      <c r="E71" s="61"/>
-      <c r="F71" s="61"/>
-      <c r="G71" s="61"/>
+      <c r="E71" s="47"/>
+      <c r="F71" s="47"/>
+      <c r="G71" s="47"/>
       <c r="H71" s="28">
         <v>3490631</v>
       </c>
@@ -3651,8 +3720,8 @@
         <f t="shared" si="18"/>
         <v>-14.712883036396381</v>
       </c>
-      <c r="O71" s="61"/>
-      <c r="P71" s="61"/>
+      <c r="O71" s="47"/>
+      <c r="P71" s="47"/>
       <c r="Q71" s="20"/>
       <c r="R71" s="20"/>
       <c r="S71" s="20"/>
@@ -3670,8 +3739,8 @@
       <c r="B72" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C72" s="61"/>
-      <c r="D72" s="61"/>
+      <c r="C72" s="47"/>
+      <c r="D72" s="47"/>
       <c r="E72" s="28">
         <f>G30</f>
         <v>1504822</v>
@@ -3683,12 +3752,12 @@
         <f>K30</f>
         <v>1504824</v>
       </c>
-      <c r="H72" s="61"/>
-      <c r="I72" s="61"/>
-      <c r="J72" s="61"/>
-      <c r="K72" s="61"/>
-      <c r="L72" s="61"/>
-      <c r="M72" s="61"/>
+      <c r="H72" s="47"/>
+      <c r="I72" s="47"/>
+      <c r="J72" s="47"/>
+      <c r="K72" s="47"/>
+      <c r="L72" s="47"/>
+      <c r="M72" s="47"/>
       <c r="N72" s="27"/>
       <c r="O72" s="27">
         <f>O70+M71</f>
@@ -3719,9 +3788,9 @@
       <c r="D73" s="27">
         <v>93.963300000000004</v>
       </c>
-      <c r="E73" s="61"/>
-      <c r="F73" s="61"/>
-      <c r="G73" s="61"/>
+      <c r="E73" s="47"/>
+      <c r="F73" s="47"/>
+      <c r="G73" s="47"/>
       <c r="H73" s="28">
         <v>3195455</v>
       </c>
@@ -3747,8 +3816,8 @@
         <f t="shared" si="18"/>
         <v>-60.501401394717725</v>
       </c>
-      <c r="O73" s="61"/>
-      <c r="P73" s="61"/>
+      <c r="O73" s="47"/>
+      <c r="P73" s="47"/>
       <c r="Q73" s="20"/>
       <c r="R73" s="20"/>
       <c r="S73" s="20"/>
@@ -3766,8 +3835,8 @@
       <c r="B74" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C74" s="61"/>
-      <c r="D74" s="61"/>
+      <c r="C74" s="47"/>
+      <c r="D74" s="47"/>
       <c r="E74" s="28">
         <f>G34</f>
         <v>1313156</v>
@@ -3778,12 +3847,12 @@
       <c r="G74" s="28">
         <v>1313158</v>
       </c>
-      <c r="H74" s="61"/>
-      <c r="I74" s="61"/>
-      <c r="J74" s="61"/>
-      <c r="K74" s="61"/>
-      <c r="L74" s="61"/>
-      <c r="M74" s="61"/>
+      <c r="H74" s="47"/>
+      <c r="I74" s="47"/>
+      <c r="J74" s="47"/>
+      <c r="K74" s="47"/>
+      <c r="L74" s="47"/>
+      <c r="M74" s="47"/>
       <c r="N74" s="27"/>
       <c r="O74" s="27">
         <f>O72+M73</f>
@@ -3814,9 +3883,9 @@
       <c r="D75" s="27">
         <v>89.102800000000002</v>
       </c>
-      <c r="E75" s="61"/>
-      <c r="F75" s="61"/>
-      <c r="G75" s="61"/>
+      <c r="E75" s="47"/>
+      <c r="F75" s="47"/>
+      <c r="G75" s="47"/>
       <c r="H75" s="28">
         <f>M34</f>
         <v>2712653</v>
@@ -3843,8 +3912,8 @@
         <f t="shared" si="18"/>
         <v>-89.071077196557098</v>
       </c>
-      <c r="O75" s="61"/>
-      <c r="P75" s="61"/>
+      <c r="O75" s="47"/>
+      <c r="P75" s="47"/>
       <c r="Q75" s="20"/>
       <c r="R75" s="20"/>
       <c r="S75" s="20"/>
@@ -3862,8 +3931,8 @@
       <c r="B76" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C76" s="61"/>
-      <c r="D76" s="61"/>
+      <c r="C76" s="47"/>
+      <c r="D76" s="47"/>
       <c r="E76" s="28">
         <f>G38</f>
         <v>1305333</v>
@@ -3875,12 +3944,12 @@
         <f>K38</f>
         <v>1305335</v>
       </c>
-      <c r="H76" s="61"/>
-      <c r="I76" s="61"/>
-      <c r="J76" s="61"/>
-      <c r="K76" s="61"/>
-      <c r="L76" s="61"/>
-      <c r="M76" s="61"/>
+      <c r="H76" s="47"/>
+      <c r="I76" s="47"/>
+      <c r="J76" s="47"/>
+      <c r="K76" s="47"/>
+      <c r="L76" s="47"/>
+      <c r="M76" s="47"/>
       <c r="N76" s="27"/>
       <c r="O76" s="27">
         <f>O74+M75</f>
@@ -3912,9 +3981,9 @@
         <f>(I40+I41+I42+I43)/4</f>
         <v>69.519000000000005</v>
       </c>
-      <c r="E77" s="61"/>
-      <c r="F77" s="61"/>
-      <c r="G77" s="61"/>
+      <c r="E77" s="47"/>
+      <c r="F77" s="47"/>
+      <c r="G77" s="47"/>
       <c r="H77" s="28">
         <f>M38</f>
         <v>2222028</v>
@@ -3941,8 +4010,8 @@
         <f t="shared" si="18"/>
         <v>-46.821485532749286</v>
       </c>
-      <c r="O77" s="61"/>
-      <c r="P77" s="61"/>
+      <c r="O77" s="47"/>
+      <c r="P77" s="47"/>
       <c r="Q77" s="20"/>
       <c r="R77" s="20"/>
       <c r="S77" s="20"/>
@@ -3960,8 +4029,8 @@
       <c r="B78" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C78" s="61"/>
-      <c r="D78" s="61"/>
+      <c r="C78" s="47"/>
+      <c r="D78" s="47"/>
       <c r="E78" s="28">
         <f>G42</f>
         <v>1672853</v>
@@ -3972,12 +4041,12 @@
       <c r="G78" s="28">
         <v>1672854</v>
       </c>
-      <c r="H78" s="61"/>
-      <c r="I78" s="61"/>
-      <c r="J78" s="61"/>
-      <c r="K78" s="61"/>
-      <c r="L78" s="61"/>
-      <c r="M78" s="61"/>
+      <c r="H78" s="47"/>
+      <c r="I78" s="47"/>
+      <c r="J78" s="47"/>
+      <c r="K78" s="47"/>
+      <c r="L78" s="47"/>
+      <c r="M78" s="47"/>
       <c r="N78" s="27"/>
       <c r="O78" s="27">
         <f>O76+M77</f>
@@ -4009,9 +4078,9 @@
         <f>(I44+I45+I46+I47)/4</f>
         <v>90.914000000000016</v>
       </c>
-      <c r="E79" s="61"/>
-      <c r="F79" s="61"/>
-      <c r="G79" s="61"/>
+      <c r="E79" s="47"/>
+      <c r="F79" s="47"/>
+      <c r="G79" s="47"/>
       <c r="H79" s="28">
         <v>2094922</v>
       </c>
@@ -4037,8 +4106,8 @@
         <f t="shared" si="18"/>
         <v>-45.210011686364432</v>
       </c>
-      <c r="O79" s="61"/>
-      <c r="P79" s="61"/>
+      <c r="O79" s="47"/>
+      <c r="P79" s="47"/>
       <c r="Q79" s="20"/>
       <c r="R79" s="20"/>
       <c r="S79" s="20"/>
@@ -4056,8 +4125,8 @@
       <c r="B80" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C80" s="61"/>
-      <c r="D80" s="61"/>
+      <c r="C80" s="47"/>
+      <c r="D80" s="47"/>
       <c r="E80" s="28">
         <f>G46</f>
         <v>1164155.5</v>
@@ -4068,12 +4137,12 @@
       <c r="G80" s="28">
         <v>1164158</v>
       </c>
-      <c r="H80" s="61"/>
-      <c r="I80" s="61"/>
-      <c r="J80" s="61"/>
-      <c r="K80" s="61"/>
-      <c r="L80" s="61"/>
-      <c r="M80" s="61"/>
+      <c r="H80" s="47"/>
+      <c r="I80" s="47"/>
+      <c r="J80" s="47"/>
+      <c r="K80" s="47"/>
+      <c r="L80" s="47"/>
+      <c r="M80" s="47"/>
       <c r="N80" s="27"/>
       <c r="O80" s="27">
         <f>O78+M79</f>
@@ -4105,9 +4174,9 @@
         <f>(I48+I49+I10+I11)/4</f>
         <v>84.481499999999997</v>
       </c>
-      <c r="E81" s="61"/>
-      <c r="F81" s="61"/>
-      <c r="G81" s="61"/>
+      <c r="E81" s="47"/>
+      <c r="F81" s="47"/>
+      <c r="G81" s="47"/>
       <c r="H81" s="28">
         <f>M46</f>
         <v>1463120</v>
@@ -4134,8 +4203,8 @@
         <f t="shared" si="18"/>
         <v>46.576655653347153</v>
       </c>
-      <c r="O81" s="61"/>
-      <c r="P81" s="61"/>
+      <c r="O81" s="47"/>
+      <c r="P81" s="47"/>
       <c r="Q81" s="20"/>
       <c r="R81" s="20"/>
       <c r="S81" s="20"/>
@@ -4153,8 +4222,8 @@
       <c r="B82" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C82" s="61"/>
-      <c r="D82" s="61"/>
+      <c r="C82" s="47"/>
+      <c r="D82" s="47"/>
       <c r="E82" s="28">
         <f>G10</f>
         <v>1691301</v>
@@ -4166,13 +4235,13 @@
         <f>K10</f>
         <v>1691303</v>
       </c>
-      <c r="H82" s="61"/>
-      <c r="I82" s="61"/>
-      <c r="J82" s="61"/>
-      <c r="K82" s="61"/>
-      <c r="L82" s="61"/>
-      <c r="M82" s="61"/>
-      <c r="N82" s="61"/>
+      <c r="H82" s="47"/>
+      <c r="I82" s="47"/>
+      <c r="J82" s="47"/>
+      <c r="K82" s="47"/>
+      <c r="L82" s="47"/>
+      <c r="M82" s="47"/>
+      <c r="N82" s="47"/>
       <c r="O82" s="27">
         <f>O80+M81</f>
         <v>3128936.8100000005</v>
@@ -4196,24 +4265,24 @@
     </row>
     <row r="83" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B83" s="34"/>
-      <c r="C83" s="61" t="s">
+      <c r="C83" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="D83" s="61"/>
+      <c r="D83" s="47"/>
       <c r="E83" s="28"/>
       <c r="F83" s="27"/>
       <c r="G83" s="28"/>
       <c r="H83" s="28">
         <v>1354423</v>
       </c>
-      <c r="I83" s="61"/>
-      <c r="J83" s="61"/>
-      <c r="K83" s="61"/>
-      <c r="L83" s="61"/>
-      <c r="M83" s="61"/>
-      <c r="N83" s="61"/>
-      <c r="O83" s="61"/>
-      <c r="P83" s="61"/>
+      <c r="I83" s="47"/>
+      <c r="J83" s="47"/>
+      <c r="K83" s="47"/>
+      <c r="L83" s="47"/>
+      <c r="M83" s="47"/>
+      <c r="N83" s="47"/>
+      <c r="O83" s="47"/>
+      <c r="P83" s="47"/>
       <c r="Q83" s="20"/>
       <c r="R83" s="20"/>
       <c r="S83" s="20"/>
@@ -4228,10 +4297,10 @@
       <c r="AB83" s="20"/>
     </row>
     <row r="84" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B84" s="45" t="s">
+      <c r="B84" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="C84" s="45"/>
+      <c r="C84" s="62"/>
       <c r="D84" s="27">
         <f>SUM(D63:D81)</f>
         <v>821.13389999999993</v>
@@ -4249,33 +4318,33 @@
       </c>
       <c r="H84" s="28"/>
       <c r="I84" s="27">
-        <f>SUM(I63:I81)</f>
+        <f t="shared" ref="I84:N84" si="19">SUM(I63:I81)</f>
         <v>-1.0000000000189857E-3</v>
       </c>
       <c r="J84" s="27">
-        <f>SUM(J63:J81)</f>
+        <f t="shared" si="19"/>
         <v>-2.9699999999969862E-2</v>
       </c>
       <c r="K84" s="27">
-        <f>SUM(K63:K81)</f>
+        <f t="shared" si="19"/>
         <v>-1.0000000000189859E-3</v>
       </c>
       <c r="L84" s="27">
-        <f>SUM(L63:L81)</f>
+        <f t="shared" si="19"/>
         <v>-2.9699999999969869E-2</v>
       </c>
       <c r="M84" s="27">
-        <f>SUM(M63:M81)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N84" s="27">
-        <f>SUM(N63:N81)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="O84" s="41" t="s">
+      <c r="O84" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="P84" s="41"/>
+      <c r="P84" s="51"/>
       <c r="Q84" s="1"/>
       <c r="R84" s="1"/>
       <c r="S84" s="1"/>
@@ -9051,15 +9120,90 @@
     </row>
   </sheetData>
   <mergeCells count="132">
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="O84:P84"/>
+    <mergeCell ref="O30:O33"/>
+    <mergeCell ref="O34:O37"/>
+    <mergeCell ref="O38:O41"/>
+    <mergeCell ref="O42:O45"/>
+    <mergeCell ref="O46:O49"/>
+    <mergeCell ref="O10:O13"/>
+    <mergeCell ref="O14:O17"/>
+    <mergeCell ref="O18:O21"/>
+    <mergeCell ref="O22:O25"/>
+    <mergeCell ref="O26:O29"/>
+    <mergeCell ref="N10:N13"/>
+    <mergeCell ref="N14:N17"/>
+    <mergeCell ref="N18:N21"/>
+    <mergeCell ref="N22:N25"/>
+    <mergeCell ref="N26:N29"/>
+    <mergeCell ref="N30:N33"/>
+    <mergeCell ref="N34:N37"/>
+    <mergeCell ref="N38:N41"/>
+    <mergeCell ref="N42:N45"/>
+    <mergeCell ref="M10:M13"/>
+    <mergeCell ref="K30:K33"/>
+    <mergeCell ref="K34:K37"/>
+    <mergeCell ref="K38:K41"/>
+    <mergeCell ref="K42:K45"/>
+    <mergeCell ref="K46:K49"/>
+    <mergeCell ref="K10:K13"/>
+    <mergeCell ref="K14:K17"/>
+    <mergeCell ref="K18:K21"/>
+    <mergeCell ref="K22:K25"/>
+    <mergeCell ref="M34:M37"/>
+    <mergeCell ref="M38:M41"/>
+    <mergeCell ref="M42:M45"/>
+    <mergeCell ref="M46:M49"/>
+    <mergeCell ref="M14:M17"/>
+    <mergeCell ref="M18:M21"/>
+    <mergeCell ref="M22:M25"/>
+    <mergeCell ref="M26:M29"/>
+    <mergeCell ref="M30:M33"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="L10:L13"/>
+    <mergeCell ref="L14:L17"/>
+    <mergeCell ref="L18:L21"/>
+    <mergeCell ref="L22:L25"/>
+    <mergeCell ref="L26:L29"/>
+    <mergeCell ref="L30:L33"/>
+    <mergeCell ref="L34:L37"/>
+    <mergeCell ref="L38:L41"/>
+    <mergeCell ref="L42:L45"/>
+    <mergeCell ref="L46:L49"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="O60:P60"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="N46:N49"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="K26:K29"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G46:G49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G41"/>
+    <mergeCell ref="D40:D41"/>
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="C3:J3"/>
     <mergeCell ref="C4:J4"/>
@@ -9084,6 +9228,15 @@
     <mergeCell ref="D22:D23"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="G22:G25"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="C2:J2"/>
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="C18:C21"/>
@@ -9099,90 +9252,6 @@
     <mergeCell ref="G30:G33"/>
     <mergeCell ref="D32:D33"/>
     <mergeCell ref="F32:F33"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="K26:K29"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="G46:G49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="O60:P60"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="L10:L13"/>
-    <mergeCell ref="L14:L17"/>
-    <mergeCell ref="L18:L21"/>
-    <mergeCell ref="L22:L25"/>
-    <mergeCell ref="L26:L29"/>
-    <mergeCell ref="L30:L33"/>
-    <mergeCell ref="L34:L37"/>
-    <mergeCell ref="L38:L41"/>
-    <mergeCell ref="L42:L45"/>
-    <mergeCell ref="L46:L49"/>
-    <mergeCell ref="M10:M13"/>
-    <mergeCell ref="K30:K33"/>
-    <mergeCell ref="K34:K37"/>
-    <mergeCell ref="K38:K41"/>
-    <mergeCell ref="K42:K45"/>
-    <mergeCell ref="K46:K49"/>
-    <mergeCell ref="K10:K13"/>
-    <mergeCell ref="K14:K17"/>
-    <mergeCell ref="K18:K21"/>
-    <mergeCell ref="K22:K25"/>
-    <mergeCell ref="M34:M37"/>
-    <mergeCell ref="M38:M41"/>
-    <mergeCell ref="M42:M45"/>
-    <mergeCell ref="M46:M49"/>
-    <mergeCell ref="N10:N13"/>
-    <mergeCell ref="N14:N17"/>
-    <mergeCell ref="N18:N21"/>
-    <mergeCell ref="N22:N25"/>
-    <mergeCell ref="N26:N29"/>
-    <mergeCell ref="N30:N33"/>
-    <mergeCell ref="N34:N37"/>
-    <mergeCell ref="N38:N41"/>
-    <mergeCell ref="N42:N45"/>
-    <mergeCell ref="N46:N49"/>
-    <mergeCell ref="M14:M17"/>
-    <mergeCell ref="M18:M21"/>
-    <mergeCell ref="M22:M25"/>
-    <mergeCell ref="M26:M29"/>
-    <mergeCell ref="M30:M33"/>
-    <mergeCell ref="O84:P84"/>
-    <mergeCell ref="O30:O33"/>
-    <mergeCell ref="O34:O37"/>
-    <mergeCell ref="O38:O41"/>
-    <mergeCell ref="O42:O45"/>
-    <mergeCell ref="O46:O49"/>
-    <mergeCell ref="O10:O13"/>
-    <mergeCell ref="O14:O17"/>
-    <mergeCell ref="O18:O21"/>
-    <mergeCell ref="O22:O25"/>
-    <mergeCell ref="O26:O29"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9195,25 +9264,25 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView topLeftCell="B7" zoomScale="165" zoomScaleNormal="165" workbookViewId="0">
-      <selection activeCell="G14" sqref="G17"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="51" t="s">
         <v>34</v>
       </c>
       <c r="F1" s="53" t="s">
@@ -9222,29 +9291,29 @@
       <c r="G1" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41" t="s">
+      <c r="I1" s="51"/>
+      <c r="J1" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41" t="s">
+      <c r="K1" s="51"/>
+      <c r="L1" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="41"/>
-      <c r="N1" s="44" t="s">
+      <c r="M1" s="51"/>
+      <c r="N1" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="41"/>
+      <c r="O1" s="51"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
       <c r="F2" s="54"/>
       <c r="G2" s="53"/>
       <c r="H2" s="27" t="s">
@@ -9316,9 +9385,9 @@
         <f>(#REF!+#REF!+#REF!+#REF!)/4</f>
         <v>#REF!</v>
       </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
       <c r="G4" s="28" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -9358,8 +9427,8 @@
       <c r="A5" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
       <c r="D5" s="28" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -9370,15 +9439,15 @@
       <c r="F5" s="28">
         <v>1431346</v>
       </c>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="34"/>
@@ -9389,9 +9458,9 @@
         <f>(#REF!+#REF!+#REF!+#REF!)/4</f>
         <v>#REF!</v>
       </c>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
       <c r="G6" s="28">
         <v>985809</v>
       </c>
@@ -9430,8 +9499,8 @@
       <c r="A7" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
       <c r="D7" s="28" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -9442,15 +9511,15 @@
       <c r="F7" s="28">
         <v>1352151</v>
       </c>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="34"/>
@@ -9461,9 +9530,9 @@
         <f>(#REF!+#REF!+#REF!+#REF!)/4</f>
         <v>#REF!</v>
       </c>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
       <c r="G8" s="28">
         <v>542000</v>
       </c>
@@ -9502,8 +9571,8 @@
       <c r="A9" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
       <c r="D9" s="28" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -9514,15 +9583,15 @@
       <c r="F9" s="28">
         <v>1300950</v>
       </c>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="61"/>
-      <c r="O9" s="61"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="34"/>
@@ -9533,9 +9602,9 @@
         <f>(#REF!+#REF!+#REF!+#REF!)/4</f>
         <v>#REF!</v>
       </c>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
       <c r="G10" s="28">
         <v>42950</v>
       </c>
@@ -9574,8 +9643,8 @@
       <c r="A11" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
       <c r="D11" s="28" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -9587,15 +9656,15 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="61"/>
-      <c r="O11" s="61"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="47"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="34"/>
@@ -9606,9 +9675,9 @@
         <f>(#REF!+#REF!+#REF!+#REF!)/4</f>
         <v>#REF!</v>
       </c>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
       <c r="G12" s="28">
         <v>3490631</v>
       </c>
@@ -9647,8 +9716,8 @@
       <c r="A13" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
       <c r="D13" s="28" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -9660,15 +9729,15 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="34"/>
@@ -9679,9 +9748,9 @@
         <f>(#REF!+#REF!+#REF!+#REF!)/4</f>
         <v>#REF!</v>
       </c>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
       <c r="G14" s="28">
         <v>3195455</v>
       </c>
@@ -9720,8 +9789,8 @@
       <c r="A15" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
       <c r="D15" s="28" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -9732,15 +9801,15 @@
       <c r="F15" s="28">
         <v>1313158</v>
       </c>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="61"/>
-      <c r="L15" s="61"/>
-      <c r="M15" s="61"/>
-      <c r="N15" s="61"/>
-      <c r="O15" s="61"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="34"/>
@@ -9751,9 +9820,9 @@
         <f>(#REF!+#REF!+#REF!+#REF!)/4</f>
         <v>#REF!</v>
       </c>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
       <c r="G16" s="28" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -9793,8 +9862,8 @@
       <c r="A17" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="61"/>
-      <c r="C17" s="61"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
       <c r="D17" s="28" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -9806,15 +9875,15 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="61"/>
-      <c r="N17" s="61"/>
-      <c r="O17" s="61"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="47"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="34"/>
@@ -9825,9 +9894,9 @@
         <f>(#REF!+#REF!+#REF!+#REF!)/4</f>
         <v>#REF!</v>
       </c>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
       <c r="G18" s="28" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -9867,8 +9936,8 @@
       <c r="A19" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
       <c r="D19" s="28" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -9879,15 +9948,15 @@
       <c r="F19" s="28">
         <v>1672854</v>
       </c>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="61"/>
-      <c r="O19" s="61"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="47"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="34"/>
@@ -9898,9 +9967,9 @@
         <f>(#REF!+#REF!+#REF!+#REF!)/4</f>
         <v>#REF!</v>
       </c>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
       <c r="G20" s="28">
         <v>2094922</v>
       </c>
@@ -9939,8 +10008,8 @@
       <c r="A21" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="61"/>
-      <c r="C21" s="61"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
       <c r="D21" s="28" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -9951,15 +10020,15 @@
       <c r="F21" s="28">
         <v>1164158</v>
       </c>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="61"/>
-      <c r="L21" s="61"/>
-      <c r="M21" s="61"/>
-      <c r="N21" s="61"/>
-      <c r="O21" s="61"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="47"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="34"/>
@@ -9970,9 +10039,9 @@
         <f>(#REF!+#REF!+#REF!+#REF!)/4</f>
         <v>#REF!</v>
       </c>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
       <c r="G22" s="28" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -10012,8 +10081,8 @@
       <c r="A23" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="61"/>
-      <c r="C23" s="61"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
       <c r="D23" s="28" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -10025,42 +10094,42 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="61"/>
-      <c r="M23" s="61"/>
-      <c r="N23" s="61"/>
-      <c r="O23" s="61"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="47"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="34"/>
-      <c r="B24" s="61" t="s">
+      <c r="B24" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="61"/>
+      <c r="C24" s="47"/>
       <c r="D24" s="28"/>
       <c r="E24" s="27"/>
       <c r="F24" s="28"/>
       <c r="G24" s="28">
         <v>1354423</v>
       </c>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="61"/>
-      <c r="M24" s="61"/>
-      <c r="N24" s="61"/>
-      <c r="O24" s="61"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="47"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="45"/>
+      <c r="B25" s="62"/>
       <c r="C25" s="27" t="e">
         <f>SUM(C4:C22)</f>
         <v>#REF!</v>
@@ -10078,33 +10147,33 @@
       </c>
       <c r="G25" s="28"/>
       <c r="H25" s="27">
-        <f>SUM(H4:H22)</f>
+        <f t="shared" ref="H25:M25" si="0">SUM(H4:H22)</f>
         <v>2.7040999999999968</v>
       </c>
       <c r="I25" s="27">
-        <f>SUM(I4:I22)</f>
+        <f t="shared" si="0"/>
         <v>-4.8280000000000101</v>
       </c>
       <c r="J25" s="27" t="e">
-        <f>SUM(J4:J22)</f>
+        <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
       <c r="K25" s="27" t="e">
-        <f>SUM(K4:K22)</f>
+        <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
       <c r="L25" s="27" t="e">
-        <f>SUM(L4:L22)</f>
+        <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
       <c r="M25" s="27" t="e">
-        <f>SUM(M4:M22)</f>
+        <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="N25" s="41" t="s">
+      <c r="N25" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="O25" s="41"/>
+      <c r="O25" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -10128,110 +10197,115 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B925D4-D134-494F-ACC5-95078722C49B}">
-  <dimension ref="B1:P65"/>
+  <dimension ref="A1:P69"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N51" sqref="N51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="3" width="8.88671875" customWidth="1"/>
     <col min="4" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.109375" customWidth="1"/>
     <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.5546875" customWidth="1"/>
     <col min="11" max="11" width="9.77734375" customWidth="1"/>
-    <col min="12" max="12" width="10.44140625" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="14" max="14" width="15.21875" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
       <c r="I1" s="23"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
       <c r="I2" s="22"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
       <c r="I3" s="23"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
       <c r="I4" s="22"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
       <c r="I7" s="24"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -10260,7 +10334,7 @@
       <c r="H9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="62" t="s">
+      <c r="I9" s="48" t="s">
         <v>61</v>
       </c>
       <c r="J9" s="38" t="s">
@@ -10269,23 +10343,25 @@
       <c r="K9" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="L9" s="27"/>
+      <c r="L9" s="43" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="60" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="16">
         <v>0</v>
       </c>
-      <c r="E10" s="47">
+      <c r="E10" s="61">
         <f>ABS(D10-D12)</f>
         <v>652638</v>
       </c>
-      <c r="F10" s="47">
+      <c r="F10" s="61">
         <v>652640</v>
       </c>
       <c r="G10" s="15">
@@ -10294,71 +10370,71 @@
       <c r="H10" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="57"/>
-      <c r="J10" s="58"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="73"/>
       <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
+      <c r="L10" s="76"/>
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
       <c r="D11" s="16">
         <v>1800000</v>
       </c>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
       <c r="G11" s="15">
         <v>84.382999999999996</v>
       </c>
       <c r="H11" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="63"/>
-      <c r="J11" s="58"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="73"/>
       <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
+      <c r="L11" s="76"/>
     </row>
     <row r="12" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="48"/>
-      <c r="C12" s="48" t="s">
+      <c r="B12" s="60"/>
+      <c r="C12" s="60" t="s">
         <v>66</v>
       </c>
       <c r="D12" s="16">
         <v>652638</v>
       </c>
-      <c r="E12" s="47">
+      <c r="E12" s="61">
         <v>652636</v>
       </c>
-      <c r="F12" s="47"/>
+      <c r="F12" s="61"/>
       <c r="G12" s="15">
         <v>60.113999999999997</v>
       </c>
       <c r="H12" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="63"/>
-      <c r="J12" s="58"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="73"/>
       <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
+      <c r="L12" s="76"/>
     </row>
     <row r="13" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
       <c r="D13" s="16">
         <v>2452642</v>
       </c>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
       <c r="G13" s="15">
         <v>60.113</v>
       </c>
       <c r="H13" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="64"/>
-      <c r="J13" s="58"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="73"/>
       <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
+      <c r="L13" s="76"/>
     </row>
     <row r="14" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="25"/>
@@ -10370,32 +10446,33 @@
       <c r="F14" s="26"/>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
-      <c r="I14" s="69">
+      <c r="I14" s="49">
         <v>315800</v>
       </c>
-      <c r="J14" s="39" t="s">
-        <v>82</v>
-      </c>
+      <c r="J14" s="39"/>
       <c r="K14" s="28">
-        <v>315814</v>
-      </c>
-      <c r="L14" s="28"/>
+        <v>315800</v>
+      </c>
+      <c r="L14" s="77">
+        <f>(G12+G13+G15+G16)/4</f>
+        <v>60.116750000000003</v>
+      </c>
     </row>
     <row r="15" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="60" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="16">
         <v>0</v>
       </c>
-      <c r="E15" s="47">
+      <c r="E15" s="61">
         <f>ABS(D15-D17)</f>
         <v>1581048</v>
       </c>
-      <c r="F15" s="47">
+      <c r="F15" s="61">
         <v>1581047.5</v>
       </c>
       <c r="G15" s="15">
@@ -10404,71 +10481,71 @@
       <c r="H15" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="57"/>
-      <c r="J15" s="58"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="73"/>
       <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
+      <c r="L15" s="76"/>
     </row>
     <row r="16" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
       <c r="D16" s="16">
         <v>1800000</v>
       </c>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
       <c r="G16" s="15">
         <v>60.12</v>
       </c>
       <c r="H16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="63"/>
-      <c r="J16" s="58"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="73"/>
       <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
+      <c r="L16" s="76"/>
     </row>
     <row r="17" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="48"/>
-      <c r="C17" s="48" t="s">
+      <c r="B17" s="60"/>
+      <c r="C17" s="60" t="s">
         <v>67</v>
       </c>
       <c r="D17" s="16">
         <v>1581048</v>
       </c>
-      <c r="E17" s="47">
+      <c r="E17" s="61">
         <v>1581047</v>
       </c>
-      <c r="F17" s="47"/>
+      <c r="F17" s="61"/>
       <c r="G17" s="15">
         <v>59.222999999999999</v>
       </c>
       <c r="H17" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="63"/>
-      <c r="J17" s="58"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="73"/>
       <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
+      <c r="L17" s="76"/>
     </row>
     <row r="18" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
       <c r="D18" s="16">
         <v>3381047</v>
       </c>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
       <c r="G18" s="15">
         <v>59.223999999999997</v>
       </c>
       <c r="H18" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="64"/>
-      <c r="J18" s="58"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="73"/>
       <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
+      <c r="L18" s="76"/>
     </row>
     <row r="19" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="25"/>
@@ -10480,32 +10557,35 @@
       <c r="F19" s="26"/>
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
-      <c r="I19" s="69">
+      <c r="I19" s="49">
         <v>100848</v>
       </c>
       <c r="J19" s="39" t="s">
         <v>82</v>
       </c>
       <c r="K19" s="28">
-        <v>100902</v>
-      </c>
-      <c r="L19" s="28"/>
+        <v>100834</v>
+      </c>
+      <c r="L19" s="77">
+        <f>(G17+G18+G20+G21)/4</f>
+        <v>59.223250000000007</v>
+      </c>
     </row>
     <row r="20" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="48" t="s">
+      <c r="C20" s="60" t="s">
         <v>66</v>
       </c>
       <c r="D20" s="16">
         <v>0</v>
       </c>
-      <c r="E20" s="47">
+      <c r="E20" s="61">
         <f t="shared" ref="E20" si="0">ABS(D20-D22)</f>
         <v>2353227</v>
       </c>
-      <c r="F20" s="47">
+      <c r="F20" s="61">
         <f t="shared" ref="F20" si="1">(E20+E22)/2</f>
         <v>2353223</v>
       </c>
@@ -10515,71 +10595,71 @@
       <c r="H20" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I20" s="57"/>
-      <c r="J20" s="58"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="73"/>
       <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
+      <c r="L20" s="76"/>
     </row>
     <row r="21" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="60"/>
       <c r="D21" s="16">
         <v>1800004</v>
       </c>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
       <c r="G21" s="15">
         <v>59.222999999999999</v>
       </c>
       <c r="H21" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="I21" s="63"/>
-      <c r="J21" s="58"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="73"/>
       <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
+      <c r="L21" s="76"/>
     </row>
     <row r="22" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="48"/>
-      <c r="C22" s="48" t="s">
+      <c r="B22" s="60"/>
+      <c r="C22" s="60" t="s">
         <v>68</v>
       </c>
       <c r="D22" s="16">
         <v>2353227</v>
       </c>
-      <c r="E22" s="47">
+      <c r="E22" s="61">
         <v>2353219</v>
       </c>
-      <c r="F22" s="47"/>
+      <c r="F22" s="61"/>
       <c r="G22" s="15">
         <v>35.002000000000002</v>
       </c>
       <c r="H22" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="63"/>
-      <c r="J22" s="58"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="73"/>
       <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
+      <c r="L22" s="76"/>
     </row>
     <row r="23" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
       <c r="D23" s="16">
         <v>553219</v>
       </c>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
       <c r="G23" s="15">
         <v>35.002000000000002</v>
       </c>
       <c r="H23" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="I23" s="64"/>
-      <c r="J23" s="58"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="73"/>
       <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
+      <c r="L23" s="76"/>
     </row>
     <row r="24" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="25"/>
@@ -10591,32 +10671,35 @@
       <c r="F24" s="26"/>
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
-      <c r="I24" s="69">
+      <c r="I24" s="49">
         <v>654111</v>
       </c>
       <c r="J24" s="39" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K24" s="28">
-        <v>654124</v>
-      </c>
-      <c r="L24" s="28"/>
+        <v>654044</v>
+      </c>
+      <c r="L24" s="77">
+        <f>(G22+G23+G25+G26)/4</f>
+        <v>35.002499999999998</v>
+      </c>
     </row>
     <row r="25" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="48" t="s">
+      <c r="C25" s="60" t="s">
         <v>67</v>
       </c>
       <c r="D25" s="16">
         <v>0</v>
       </c>
-      <c r="E25" s="47">
+      <c r="E25" s="61">
         <f t="shared" ref="E25" si="2">ABS(D25-D27)</f>
         <v>2504058</v>
       </c>
-      <c r="F25" s="47">
+      <c r="F25" s="61">
         <v>2504057</v>
       </c>
       <c r="G25" s="15">
@@ -10625,71 +10708,71 @@
       <c r="H25" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I25" s="57"/>
-      <c r="J25" s="58"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="73"/>
       <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
+      <c r="L25" s="76"/>
     </row>
     <row r="26" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
       <c r="D26" s="16">
         <v>1800004</v>
       </c>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
       <c r="G26" s="15">
         <v>35.003</v>
       </c>
       <c r="H26" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="I26" s="63"/>
-      <c r="J26" s="58"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="73"/>
       <c r="K26" s="54"/>
-      <c r="L26" s="54"/>
+      <c r="L26" s="76"/>
     </row>
     <row r="27" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="48"/>
-      <c r="C27" s="48" t="s">
+      <c r="B27" s="60"/>
+      <c r="C27" s="60" t="s">
         <v>69</v>
       </c>
       <c r="D27" s="16">
         <v>2504058</v>
       </c>
-      <c r="E27" s="47">
+      <c r="E27" s="61">
         <v>2504056</v>
       </c>
-      <c r="F27" s="47"/>
+      <c r="F27" s="61"/>
       <c r="G27" s="15">
         <v>53.875</v>
       </c>
       <c r="H27" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I27" s="63"/>
-      <c r="J27" s="58"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="73"/>
       <c r="K27" s="54"/>
-      <c r="L27" s="54"/>
+      <c r="L27" s="76"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B28" s="56"/>
-      <c r="C28" s="56"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="74"/>
       <c r="D28" s="37">
         <v>704056</v>
       </c>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
       <c r="G28" s="30">
         <v>53.872999999999998</v>
       </c>
       <c r="H28" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="I28" s="65"/>
-      <c r="J28" s="59"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="75"/>
       <c r="K28" s="54"/>
-      <c r="L28" s="54"/>
+      <c r="L28" s="76"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B29" s="6"/>
@@ -10705,18 +10788,21 @@
         <v>1362208</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K29" s="28">
-        <v>1362222</v>
-      </c>
-      <c r="L29" s="28"/>
+        <v>1362127</v>
+      </c>
+      <c r="L29" s="77">
+        <f>(G27+G28+G30+G31)/4</f>
+        <v>53.876499999999993</v>
+      </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="41" t="s">
+      <c r="C30" s="51" t="s">
         <v>68</v>
       </c>
       <c r="D30" s="28">
@@ -10736,14 +10822,14 @@
       <c r="H30" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="I30" s="66"/>
-      <c r="J30" s="55"/>
+      <c r="I30" s="69"/>
+      <c r="J30" s="72"/>
       <c r="K30" s="54"/>
-      <c r="L30" s="54"/>
+      <c r="L30" s="76"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="51"/>
       <c r="D31" s="28">
         <v>1795959</v>
       </c>
@@ -10755,14 +10841,14 @@
       <c r="H31" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="I31" s="67"/>
-      <c r="J31" s="55"/>
+      <c r="I31" s="70"/>
+      <c r="J31" s="72"/>
       <c r="K31" s="54"/>
-      <c r="L31" s="54"/>
+      <c r="L31" s="76"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B32" s="41"/>
-      <c r="C32" s="41" t="s">
+      <c r="B32" s="51"/>
+      <c r="C32" s="51" t="s">
         <v>70</v>
       </c>
       <c r="D32" s="28">
@@ -10778,14 +10864,14 @@
       <c r="H32" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="I32" s="67"/>
-      <c r="J32" s="55"/>
+      <c r="I32" s="70"/>
+      <c r="J32" s="72"/>
       <c r="K32" s="54"/>
-      <c r="L32" s="54"/>
+      <c r="L32" s="76"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="51"/>
       <c r="D33" s="28">
         <v>2961519</v>
       </c>
@@ -10797,10 +10883,10 @@
       <c r="H33" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="I33" s="68"/>
-      <c r="J33" s="55"/>
+      <c r="I33" s="71"/>
+      <c r="J33" s="72"/>
       <c r="K33" s="54"/>
-      <c r="L33" s="54"/>
+      <c r="L33" s="76"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B34" s="27"/>
@@ -10812,22 +10898,25 @@
       <c r="F34" s="28"/>
       <c r="G34" s="27"/>
       <c r="H34" s="27"/>
-      <c r="I34" s="70">
+      <c r="I34" s="50">
         <v>723729</v>
       </c>
       <c r="J34" s="40" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K34" s="28">
-        <v>723743</v>
-      </c>
-      <c r="L34" s="28"/>
+        <v>723634</v>
+      </c>
+      <c r="L34" s="77">
+        <f>(G32+G33+G35+G36)/4</f>
+        <v>45.379000000000005</v>
+      </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="41" t="s">
+      <c r="C35" s="51" t="s">
         <v>69</v>
       </c>
       <c r="D35" s="28">
@@ -10847,14 +10936,14 @@
       <c r="H35" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="I35" s="66"/>
-      <c r="J35" s="55"/>
+      <c r="I35" s="69"/>
+      <c r="J35" s="72"/>
       <c r="K35" s="54"/>
-      <c r="L35" s="54"/>
+      <c r="L35" s="76"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B36" s="41"/>
-      <c r="C36" s="41"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="51"/>
       <c r="D36" s="28">
         <v>1800001</v>
       </c>
@@ -10866,14 +10955,14 @@
       <c r="H36" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="I36" s="67"/>
-      <c r="J36" s="55"/>
+      <c r="I36" s="70"/>
+      <c r="J36" s="72"/>
       <c r="K36" s="54"/>
-      <c r="L36" s="54"/>
+      <c r="L36" s="76"/>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B37" s="41"/>
-      <c r="C37" s="41" t="s">
+      <c r="B37" s="51"/>
+      <c r="C37" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D37" s="28">
@@ -10889,14 +10978,14 @@
       <c r="H37" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="I37" s="67"/>
-      <c r="J37" s="55"/>
+      <c r="I37" s="70"/>
+      <c r="J37" s="72"/>
       <c r="K37" s="54"/>
-      <c r="L37" s="54"/>
+      <c r="L37" s="76"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="51"/>
       <c r="D38" s="28">
         <v>3423205</v>
       </c>
@@ -10908,10 +10997,10 @@
       <c r="H38" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="I38" s="68"/>
-      <c r="J38" s="55"/>
+      <c r="I38" s="71"/>
+      <c r="J38" s="72"/>
       <c r="K38" s="54"/>
-      <c r="L38" s="54"/>
+      <c r="L38" s="76"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B39" s="27"/>
@@ -10923,22 +11012,25 @@
       <c r="F39" s="28"/>
       <c r="G39" s="27"/>
       <c r="H39" s="27"/>
-      <c r="I39" s="70">
+      <c r="I39" s="50">
         <v>550931</v>
       </c>
       <c r="J39" s="40" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="K39" s="28">
-        <v>550945</v>
-      </c>
-      <c r="L39" s="28"/>
+        <v>550822</v>
+      </c>
+      <c r="L39" s="77">
+        <f>(G37+G38+G40+G41)/4</f>
+        <v>49.338250000000002</v>
+      </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B40" s="41" t="s">
+      <c r="B40" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="C40" s="41" t="s">
+      <c r="C40" s="51" t="s">
         <v>70</v>
       </c>
       <c r="D40" s="28">
@@ -10956,14 +11048,14 @@
       <c r="H40" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="I40" s="66"/>
-      <c r="J40" s="55"/>
+      <c r="I40" s="69"/>
+      <c r="J40" s="72"/>
       <c r="K40" s="54"/>
-      <c r="L40" s="54"/>
+      <c r="L40" s="76"/>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B41" s="41"/>
-      <c r="C41" s="41"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="51"/>
       <c r="D41" s="28">
         <v>1800000</v>
       </c>
@@ -10975,14 +11067,16 @@
       <c r="H41" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="I41" s="67"/>
-      <c r="J41" s="55"/>
+      <c r="I41" s="70"/>
+      <c r="J41" s="72"/>
       <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
+      <c r="L41" s="76"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B42" s="41"/>
-      <c r="C42" s="41" t="s">
+      <c r="B42" s="51"/>
+      <c r="C42" s="51" t="s">
         <v>20</v>
       </c>
       <c r="D42" s="28">
@@ -10998,14 +11092,21 @@
       <c r="H42" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="I42" s="67"/>
-      <c r="J42" s="55"/>
+      <c r="I42" s="70"/>
+      <c r="J42" s="72"/>
       <c r="K42" s="54"/>
-      <c r="L42" s="54"/>
+      <c r="L42" s="76"/>
+      <c r="O42" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P42" s="2">
+        <f>L63-O44</f>
+        <v>-5.0599999725818634E-2</v>
+      </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B43" s="41"/>
-      <c r="C43" s="41"/>
+      <c r="B43" s="51"/>
+      <c r="C43" s="51"/>
       <c r="D43" s="28">
         <v>2644631</v>
       </c>
@@ -11017,17 +11118,33 @@
       <c r="H43" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="I43" s="68"/>
-      <c r="J43" s="55"/>
+      <c r="I43" s="71"/>
+      <c r="J43" s="72"/>
       <c r="K43" s="54"/>
-      <c r="L43" s="54"/>
+      <c r="L43" s="76"/>
+      <c r="O43" s="80" t="s">
+        <v>92</v>
+      </c>
+      <c r="P43" s="2">
+        <f>M63-P44</f>
+        <v>9.7599999746307731E-2</v>
+      </c>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>52</v>
       </c>
-      <c r="I44" s="60">
+      <c r="I44" s="46">
         <v>3195604</v>
+      </c>
+      <c r="K44" s="46">
+        <v>3195455</v>
+      </c>
+      <c r="O44" s="41">
+        <v>3129063.35</v>
+      </c>
+      <c r="P44" s="41">
+        <v>972207.81530000002</v>
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.3">
@@ -11067,21 +11184,19 @@
     <row r="47" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
-      <c r="D47" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="E47" s="50"/>
-      <c r="F47" s="50"/>
-      <c r="G47" s="50"/>
-      <c r="H47" s="50"/>
-      <c r="I47" s="50"/>
-      <c r="J47" s="50"/>
+      <c r="D47" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="E47" s="56"/>
+      <c r="F47" s="56"/>
+      <c r="G47" s="56"/>
+      <c r="H47" s="56"/>
+      <c r="I47" s="56"/>
+      <c r="J47" s="56"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B48" s="2"/>
@@ -11097,386 +11212,687 @@
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
-    </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B49" s="41" t="s">
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A49" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C49" s="44" t="s">
+      <c r="C49" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="D49" s="44" t="s">
+      <c r="D49" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="E49" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="F49" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="G49" s="53" t="s">
+      <c r="E49" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="H49" s="41" t="s">
+      <c r="F49" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="I49" s="41"/>
-      <c r="J49" s="41" t="s">
+      <c r="G49" s="51"/>
+      <c r="H49" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="K49" s="41"/>
-      <c r="L49" s="41" t="s">
+      <c r="I49" s="51"/>
+      <c r="J49" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="M49" s="41"/>
-      <c r="N49" s="44" t="s">
+      <c r="K49" s="51"/>
+      <c r="L49" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="O49" s="41"/>
-      <c r="P49" s="2"/>
-    </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B50" s="41"/>
-      <c r="C50" s="41"/>
-      <c r="D50" s="41"/>
-      <c r="E50" s="41"/>
-      <c r="F50" s="54"/>
-      <c r="G50" s="53"/>
-      <c r="H50" s="27" t="s">
+      <c r="M49" s="51"/>
+      <c r="N49" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="O49" s="52"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A50" s="51"/>
+      <c r="B50" s="51"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="51"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="I50" s="27" t="s">
+      <c r="G50" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="J50" s="27" t="s">
+      <c r="H50" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="K50" s="27" t="s">
+      <c r="I50" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="L50" s="27" t="s">
+      <c r="J50" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="M50" s="27" t="s">
+      <c r="K50" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="N50" s="27" t="s">
+      <c r="L50" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="O50" s="27" t="s">
+      <c r="M50" s="41" t="s">
         <v>45</v>
       </c>
+      <c r="N50" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="O50" s="41" t="s">
+        <v>45</v>
+      </c>
       <c r="P50" s="2"/>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="27"/>
-      <c r="K51" s="27"/>
-      <c r="L51" s="27"/>
-      <c r="M51" s="27"/>
-      <c r="N51" s="27"/>
-      <c r="O51" s="27"/>
-      <c r="P51" s="2"/>
-    </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B52" s="27" t="s">
+    <row r="51" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="27"/>
-      <c r="D52" s="61"/>
-      <c r="E52" s="61"/>
-      <c r="F52" s="61"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="27"/>
-      <c r="L52" s="27"/>
-      <c r="M52" s="27"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="45">
+        <f>F10</f>
+        <v>652640</v>
+      </c>
+      <c r="E51" s="45"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="I51" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="J51" s="41"/>
+      <c r="K51" s="41"/>
+      <c r="L51" s="41">
+        <v>3128936.81</v>
+      </c>
+      <c r="M51" s="41">
+        <v>972012.78799999994</v>
+      </c>
+      <c r="N51" s="41">
+        <v>3128936.81</v>
+      </c>
+      <c r="O51" s="41">
+        <v>972012.78799999994</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="44"/>
+      <c r="B52" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="C52" s="41">
+        <f>L14</f>
+        <v>60.116750000000003</v>
+      </c>
+      <c r="D52" s="41"/>
+      <c r="E52" s="45">
+        <f>K14</f>
+        <v>315800</v>
+      </c>
+      <c r="F52" s="41">
+        <v>51.000399999999999</v>
+      </c>
+      <c r="G52" s="41">
+        <v>31.827400000000001</v>
+      </c>
+      <c r="H52" s="47">
+        <f>(P42*C52)/C65</f>
+        <v>-1.0041411463689497E-2</v>
+      </c>
+      <c r="I52" s="41">
+        <f>(P43*C52)/C65</f>
+        <v>1.9368414261247524E-2</v>
+      </c>
+      <c r="J52" s="41">
+        <f>F52-H52</f>
+        <v>51.010441411463688</v>
+      </c>
+      <c r="K52" s="41">
+        <f>G52-I52</f>
+        <v>31.808031585738753</v>
+      </c>
+      <c r="L52" s="47"/>
+      <c r="M52" s="47"/>
+      <c r="N52" s="41"/>
+      <c r="O52" s="41"/>
       <c r="P52" s="2"/>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B53" s="61"/>
-      <c r="C53" s="61"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="61"/>
-      <c r="H53" s="61"/>
-      <c r="I53" s="61"/>
-      <c r="J53" s="61"/>
-      <c r="K53" s="61"/>
-      <c r="L53" s="61"/>
-      <c r="M53" s="27"/>
-      <c r="N53" s="27"/>
-      <c r="O53" s="27"/>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A53" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53" s="78"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="45">
+        <f>F15</f>
+        <v>1581047.5</v>
+      </c>
+      <c r="E53" s="47"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="41"/>
+      <c r="I53" s="47"/>
+      <c r="J53" s="41"/>
+      <c r="K53" s="41"/>
+      <c r="L53" s="41">
+        <f>L51+F52</f>
+        <v>3128987.8103999998</v>
+      </c>
+      <c r="M53" s="41">
+        <f>M51+G52</f>
+        <v>972044.61539999989</v>
+      </c>
+      <c r="N53" s="41">
+        <f>N51+J52</f>
+        <v>3128987.8204414113</v>
+      </c>
+      <c r="O53" s="41">
+        <f>O51+K52</f>
+        <v>972044.59603158571</v>
+      </c>
       <c r="P53" s="2"/>
     </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B54" s="27"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="61"/>
-      <c r="E54" s="61"/>
-      <c r="F54" s="61"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="27"/>
-      <c r="I54" s="27"/>
-      <c r="J54" s="27"/>
-      <c r="K54" s="27"/>
-      <c r="L54" s="27"/>
-      <c r="M54" s="27"/>
-      <c r="N54" s="61"/>
-      <c r="O54" s="61"/>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A54" s="44"/>
+      <c r="B54" s="79" t="s">
+        <v>77</v>
+      </c>
+      <c r="C54" s="41">
+        <f>L19</f>
+        <v>59.223250000000007</v>
+      </c>
+      <c r="D54" s="41"/>
+      <c r="E54" s="45">
+        <f>K19</f>
+        <v>100834</v>
+      </c>
+      <c r="F54" s="41">
+        <v>58.297699999999999</v>
+      </c>
+      <c r="G54" s="41">
+        <v>10.4293</v>
+      </c>
+      <c r="H54" s="47">
+        <f>(P42*C54)/C65</f>
+        <v>-9.8921685132171821E-3</v>
+      </c>
+      <c r="I54" s="41">
+        <f>(P43*C54)/C65</f>
+        <v>1.9080546435018983E-2</v>
+      </c>
+      <c r="J54" s="41">
+        <f t="shared" ref="J53:J62" si="7">F54-H54</f>
+        <v>58.307592168513217</v>
+      </c>
+      <c r="K54" s="41">
+        <f t="shared" ref="K53:K62" si="8">G54-I54</f>
+        <v>10.410219453564981</v>
+      </c>
+      <c r="L54" s="47"/>
+      <c r="M54" s="41"/>
+      <c r="N54" s="41"/>
+      <c r="O54" s="41"/>
       <c r="P54" s="2"/>
     </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B55" s="61"/>
-      <c r="C55" s="61"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="61"/>
-      <c r="H55" s="61"/>
-      <c r="I55" s="61"/>
-      <c r="J55" s="61"/>
-      <c r="K55" s="61"/>
-      <c r="L55" s="61"/>
-      <c r="M55" s="27"/>
-      <c r="N55" s="27"/>
-      <c r="O55" s="27"/>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A55" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" s="78"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="45">
+        <f>F20</f>
+        <v>2353223</v>
+      </c>
+      <c r="E55" s="47"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="47"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="47"/>
+      <c r="J55" s="41"/>
+      <c r="K55" s="41"/>
+      <c r="L55" s="41">
+        <f>L53+F54</f>
+        <v>3129046.1080999998</v>
+      </c>
+      <c r="M55" s="41">
+        <f t="shared" ref="M54:M63" si="9">M53+G54</f>
+        <v>972055.04469999985</v>
+      </c>
+      <c r="N55" s="41">
+        <f t="shared" ref="N54:N63" si="10">N53+J54</f>
+        <v>3129046.1280335798</v>
+      </c>
+      <c r="O55" s="41">
+        <f t="shared" ref="O54:O63" si="11">O53+K54</f>
+        <v>972055.00625103922</v>
+      </c>
       <c r="P55" s="2"/>
     </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="61"/>
-      <c r="E56" s="61"/>
-      <c r="F56" s="61"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="27"/>
-      <c r="I56" s="27"/>
-      <c r="J56" s="27"/>
-      <c r="K56" s="27"/>
-      <c r="L56" s="27"/>
-      <c r="M56" s="27"/>
-      <c r="N56" s="61"/>
-      <c r="O56" s="61"/>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A56" s="44"/>
+      <c r="B56" s="79" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" s="41">
+        <f>L24</f>
+        <v>35.002499999999998</v>
+      </c>
+      <c r="D56" s="41"/>
+      <c r="E56" s="45">
+        <f>K24</f>
+        <v>654044</v>
+      </c>
+      <c r="F56" s="41">
+        <v>14.415800000000001</v>
+      </c>
+      <c r="G56" s="41">
+        <v>31.896000000000001</v>
+      </c>
+      <c r="H56" s="47">
+        <f>(C56*P42)/C65</f>
+        <v>-5.8465320357103728E-3</v>
+      </c>
+      <c r="I56" s="41">
+        <f>(P43*C56)/C65</f>
+        <v>1.1277105302254635E-2</v>
+      </c>
+      <c r="J56" s="41">
+        <f t="shared" si="7"/>
+        <v>14.421646532035711</v>
+      </c>
+      <c r="K56" s="41">
+        <f t="shared" si="8"/>
+        <v>31.884722894697745</v>
+      </c>
+      <c r="L56" s="41"/>
+      <c r="M56" s="41"/>
+      <c r="N56" s="41"/>
+      <c r="O56" s="41"/>
       <c r="P56" s="36"/>
     </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B57" s="61"/>
-      <c r="C57" s="61"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="61"/>
-      <c r="H57" s="61"/>
-      <c r="I57" s="61"/>
-      <c r="J57" s="61"/>
-      <c r="K57" s="61"/>
-      <c r="L57" s="61"/>
-      <c r="M57" s="27"/>
-      <c r="N57" s="27"/>
-      <c r="O57" s="27"/>
-    </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B58" s="27"/>
-      <c r="C58" s="27"/>
-      <c r="D58" s="61"/>
-      <c r="E58" s="61"/>
-      <c r="F58" s="61"/>
-      <c r="G58" s="28"/>
-      <c r="H58" s="27"/>
-      <c r="I58" s="27"/>
-      <c r="J58" s="27"/>
-      <c r="K58" s="27"/>
-      <c r="L58" s="27"/>
-      <c r="M58" s="27"/>
-      <c r="N58" s="61"/>
-      <c r="O58" s="61"/>
-    </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B59" s="61"/>
-      <c r="C59" s="61"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="61"/>
-      <c r="H59" s="61"/>
-      <c r="I59" s="61"/>
-      <c r="J59" s="61"/>
-      <c r="K59" s="61"/>
-      <c r="L59" s="61"/>
-      <c r="M59" s="27"/>
-      <c r="N59" s="27"/>
-      <c r="O59" s="27"/>
-    </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B60" s="27"/>
-      <c r="C60" s="27"/>
-      <c r="D60" s="61"/>
-      <c r="E60" s="61"/>
-      <c r="F60" s="61"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="27"/>
-      <c r="I60" s="27"/>
-      <c r="J60" s="27"/>
-      <c r="K60" s="27"/>
-      <c r="L60" s="27"/>
-      <c r="M60" s="27"/>
-      <c r="N60" s="61"/>
-      <c r="O60" s="61"/>
-    </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B61" s="61"/>
-      <c r="C61" s="61"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="61"/>
-      <c r="H61" s="61"/>
-      <c r="I61" s="61"/>
-      <c r="J61" s="61"/>
-      <c r="K61" s="61"/>
-      <c r="L61" s="61"/>
-      <c r="M61" s="27"/>
-      <c r="N61" s="27"/>
-      <c r="O61" s="27"/>
-    </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B62" s="27"/>
-      <c r="C62" s="27"/>
-      <c r="D62" s="61"/>
-      <c r="E62" s="61"/>
-      <c r="F62" s="61"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="27"/>
-      <c r="I62" s="27"/>
-      <c r="J62" s="27"/>
-      <c r="K62" s="27"/>
-      <c r="L62" s="27"/>
-      <c r="M62" s="27"/>
-      <c r="N62" s="61"/>
-      <c r="O62" s="61"/>
-    </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B63" s="61"/>
-      <c r="C63" s="61"/>
-      <c r="D63" s="28"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="28"/>
-      <c r="G63" s="61"/>
-      <c r="H63" s="61"/>
-      <c r="I63" s="61"/>
-      <c r="J63" s="61"/>
-      <c r="K63" s="61"/>
-      <c r="L63" s="61"/>
-      <c r="M63" s="27"/>
-      <c r="N63" s="27"/>
-      <c r="O63" s="27"/>
-    </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B64" s="27"/>
-      <c r="C64" s="27"/>
-      <c r="D64" s="61"/>
-      <c r="E64" s="61"/>
-      <c r="F64" s="61"/>
-      <c r="G64" s="28"/>
-      <c r="H64" s="27"/>
-      <c r="I64" s="27"/>
-      <c r="J64" s="27"/>
-      <c r="K64" s="27"/>
-      <c r="L64" s="27"/>
-      <c r="M64" s="27"/>
-      <c r="N64" s="61"/>
-      <c r="O64" s="61"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B65" s="61"/>
-      <c r="C65" s="61"/>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A57" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="B57" s="78"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="45">
+        <f>F25</f>
+        <v>2504057</v>
+      </c>
+      <c r="E57" s="47"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="47"/>
+      <c r="H57" s="41"/>
+      <c r="I57" s="47"/>
+      <c r="J57" s="41"/>
+      <c r="K57" s="41"/>
+      <c r="L57" s="41">
+        <f t="shared" ref="L56:L63" si="12">L55+F56</f>
+        <v>3129060.5238999999</v>
+      </c>
+      <c r="M57" s="41">
+        <f t="shared" si="9"/>
+        <v>972086.9406999998</v>
+      </c>
+      <c r="N57" s="41">
+        <f t="shared" si="10"/>
+        <v>3129060.5496801119</v>
+      </c>
+      <c r="O57" s="41">
+        <f t="shared" si="11"/>
+        <v>972086.89097393386</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A58" s="44"/>
+      <c r="B58" s="79" t="s">
+        <v>79</v>
+      </c>
+      <c r="C58" s="41">
+        <f>L29</f>
+        <v>53.876499999999993</v>
+      </c>
+      <c r="D58" s="41"/>
+      <c r="E58" s="45">
+        <f>K29</f>
+        <v>1362127</v>
+      </c>
+      <c r="F58" s="41">
+        <v>-38.988300000000002</v>
+      </c>
+      <c r="G58" s="41">
+        <v>37.183199999999999</v>
+      </c>
+      <c r="H58" s="47">
+        <f>(P42*C58)/C65</f>
+        <v>-8.9990910141261315E-3</v>
+      </c>
+      <c r="I58" s="41">
+        <f>(P43*C58)/C65</f>
+        <v>1.7357930542587583E-2</v>
+      </c>
+      <c r="J58" s="41">
+        <f t="shared" si="7"/>
+        <v>-38.979300908985877</v>
+      </c>
+      <c r="K58" s="41">
+        <f t="shared" si="8"/>
+        <v>37.165842069457412</v>
+      </c>
+      <c r="L58" s="41"/>
+      <c r="M58" s="41"/>
+      <c r="N58" s="41"/>
+      <c r="O58" s="41"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A59" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="B59" s="78"/>
+      <c r="C59" s="41"/>
+      <c r="D59" s="45">
+        <f>F30</f>
+        <v>1161521</v>
+      </c>
+      <c r="E59" s="47"/>
+      <c r="F59" s="47"/>
+      <c r="G59" s="47"/>
+      <c r="H59" s="41"/>
+      <c r="I59" s="47"/>
+      <c r="J59" s="41"/>
+      <c r="K59" s="41"/>
+      <c r="L59" s="41">
+        <f t="shared" si="12"/>
+        <v>3129021.5356000001</v>
+      </c>
+      <c r="M59" s="41">
+        <f t="shared" si="9"/>
+        <v>972124.12389999977</v>
+      </c>
+      <c r="N59" s="41">
+        <f t="shared" si="10"/>
+        <v>3129021.5703792027</v>
+      </c>
+      <c r="O59" s="41">
+        <f t="shared" si="11"/>
+        <v>972124.05681600329</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A60" s="44"/>
+      <c r="B60" s="79" t="s">
+        <v>80</v>
+      </c>
+      <c r="C60" s="41">
+        <f>L34</f>
+        <v>45.379000000000005</v>
+      </c>
+      <c r="D60" s="41"/>
+      <c r="E60" s="45">
+        <f>K34</f>
+        <v>723634</v>
+      </c>
+      <c r="F60" s="41">
+        <v>13.563000000000001</v>
+      </c>
+      <c r="G60" s="41">
+        <v>43.304699999999997</v>
+      </c>
+      <c r="H60" s="47">
+        <f>(P42*C60)/C65</f>
+        <v>-7.5797379401043091E-3</v>
+      </c>
+      <c r="I60" s="41">
+        <f>(P43*C60)/C65</f>
+        <v>1.4620206028455486E-2</v>
+      </c>
+      <c r="J60" s="41">
+        <f t="shared" si="7"/>
+        <v>13.570579737940104</v>
+      </c>
+      <c r="K60" s="41">
+        <f t="shared" si="8"/>
+        <v>43.290079793971543</v>
+      </c>
+      <c r="L60" s="41"/>
+      <c r="M60" s="41"/>
+      <c r="N60" s="41"/>
+      <c r="O60" s="41"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A61" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61" s="78"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="45">
+        <f>F35</f>
+        <v>1623202</v>
+      </c>
+      <c r="E61" s="47"/>
+      <c r="F61" s="47"/>
+      <c r="G61" s="47"/>
+      <c r="H61" s="41"/>
+      <c r="I61" s="47"/>
+      <c r="J61" s="41"/>
+      <c r="K61" s="41"/>
+      <c r="L61" s="41">
+        <f t="shared" si="12"/>
+        <v>3129035.0986000001</v>
+      </c>
+      <c r="M61" s="41">
+        <f t="shared" si="9"/>
+        <v>972167.42859999975</v>
+      </c>
+      <c r="N61" s="41">
+        <f t="shared" si="10"/>
+        <v>3129035.1409589406</v>
+      </c>
+      <c r="O61" s="41">
+        <f t="shared" si="11"/>
+        <v>972167.34689579729</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A62" s="44"/>
+      <c r="B62" s="79" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" s="41">
+        <f>L39</f>
+        <v>49.338250000000002</v>
+      </c>
+      <c r="D62" s="41"/>
+      <c r="E62" s="45">
+        <f>K39</f>
+        <v>550822</v>
+      </c>
+      <c r="F62" s="41">
+        <v>28.200800000000001</v>
+      </c>
+      <c r="G62" s="41">
+        <v>40.484299999999998</v>
+      </c>
+      <c r="H62" s="47">
+        <f>(P42*C62)/C65</f>
+        <v>-8.2410587589711402E-3</v>
+      </c>
+      <c r="I62" s="41">
+        <f>(P43*C62)/C65</f>
+        <v>1.5895797176743512E-2</v>
+      </c>
+      <c r="J62" s="41">
+        <f t="shared" si="7"/>
+        <v>28.209041058758974</v>
+      </c>
+      <c r="K62" s="41">
+        <f t="shared" si="8"/>
+        <v>40.468404202823251</v>
+      </c>
+      <c r="L62" s="41"/>
+      <c r="M62" s="41"/>
+      <c r="N62" s="41"/>
+      <c r="O62" s="41"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A63" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="B63" s="78"/>
+      <c r="C63" s="41"/>
+      <c r="D63" s="45">
+        <f>F40</f>
+        <v>844633</v>
+      </c>
+      <c r="E63" s="47"/>
+      <c r="F63" s="47"/>
+      <c r="G63" s="47"/>
+      <c r="I63" s="47"/>
+      <c r="J63" s="47"/>
+      <c r="K63" s="41"/>
+      <c r="L63" s="41">
+        <f t="shared" si="12"/>
+        <v>3129063.2994000004</v>
+      </c>
+      <c r="M63" s="41">
+        <f t="shared" si="9"/>
+        <v>972207.91289999976</v>
+      </c>
+      <c r="N63" s="41">
+        <f t="shared" si="10"/>
+        <v>3129063.3499999992</v>
+      </c>
+      <c r="O63" s="41">
+        <f t="shared" si="11"/>
+        <v>972207.81530000013</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A64" s="44"/>
+      <c r="B64" s="79" t="s">
+        <v>52</v>
+      </c>
+      <c r="C64" s="41"/>
+      <c r="D64" s="41"/>
+      <c r="E64" s="45"/>
+      <c r="F64" s="41"/>
+      <c r="G64" s="41"/>
+      <c r="H64" s="41"/>
+      <c r="I64" s="41"/>
+      <c r="J64" s="41"/>
+      <c r="K64" s="41"/>
+      <c r="L64" s="47"/>
+      <c r="M64" s="47"/>
+      <c r="N64" s="6"/>
+      <c r="O64" s="6"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A65" s="81" t="s">
+        <v>57</v>
+      </c>
+      <c r="B65" s="82"/>
+      <c r="C65" s="47">
+        <f>SUM(C52:C62)</f>
+        <v>302.93625000000003</v>
+      </c>
       <c r="D65" s="28"/>
       <c r="E65" s="27"/>
       <c r="F65" s="28"/>
-      <c r="G65" s="61"/>
-      <c r="H65" s="61"/>
-      <c r="I65" s="61"/>
-      <c r="J65" s="61"/>
-      <c r="K65" s="61"/>
-      <c r="L65" s="61"/>
-      <c r="M65" s="27"/>
-      <c r="N65" s="27"/>
-      <c r="O65" s="27"/>
+      <c r="G65" s="47"/>
+      <c r="H65" s="47"/>
+      <c r="I65" s="47"/>
+      <c r="J65" s="47"/>
+      <c r="K65" s="47"/>
+      <c r="L65" s="47"/>
+      <c r="M65" s="41"/>
+      <c r="N65" s="6"/>
+      <c r="O65" s="6"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M66" t="s">
+        <v>20</v>
+      </c>
+      <c r="N66" s="41">
+        <f>Sheet1!O74</f>
+        <v>3129135.2410932244</v>
+      </c>
+      <c r="O66" s="41">
+        <f>Sheet1!P74</f>
+        <v>972147.31391876237</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M67" t="s">
+        <v>21</v>
+      </c>
+      <c r="N67" s="42">
+        <f>Sheet1!O76</f>
+        <v>3129137.4929017364</v>
+      </c>
+      <c r="O67" s="42">
+        <f>Sheet1!P76</f>
+        <v>972058.24284156587</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M68" t="s">
+        <v>22</v>
+      </c>
+      <c r="N68" s="42">
+        <f>Sheet1!O78</f>
+        <v>3129086.1081863986</v>
+      </c>
+      <c r="O68" s="42">
+        <f>Sheet1!P78</f>
+        <v>972011.42135603307</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M69" t="s">
+        <v>23</v>
+      </c>
+      <c r="N69" s="42">
+        <f>Sheet1!O80</f>
+        <v>3129007.2341971165</v>
+      </c>
+      <c r="O69" s="42">
+        <f>Sheet1!P80</f>
+        <v>971966.21134434675</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="89">
-    <mergeCell ref="L49:M49"/>
+  <mergeCells count="90">
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="A65:B65"/>
     <mergeCell ref="N49:O49"/>
-    <mergeCell ref="D47:J47"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="K40:K43"/>
-    <mergeCell ref="L40:L43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="I25:I28"/>
-    <mergeCell ref="I30:I33"/>
-    <mergeCell ref="I35:I38"/>
-    <mergeCell ref="I40:I43"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F43"/>
-    <mergeCell ref="J40:J43"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="J10:J13"/>
-    <mergeCell ref="K10:K13"/>
-    <mergeCell ref="L10:L13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="K15:K18"/>
-    <mergeCell ref="L15:L18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="K20:K23"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="J35:J38"/>
+    <mergeCell ref="L30:L33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="L35:L38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="K35:K38"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="J30:J33"/>
+    <mergeCell ref="K30:K33"/>
     <mergeCell ref="L20:L23"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="E22:E23"/>
@@ -11489,25 +11905,64 @@
     <mergeCell ref="L25:L28"/>
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="E27:E28"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="J30:J33"/>
-    <mergeCell ref="K30:K33"/>
-    <mergeCell ref="L30:L33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="L35:L38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="J35:J38"/>
-    <mergeCell ref="K35:K38"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="K20:K23"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F43"/>
+    <mergeCell ref="J40:J43"/>
+    <mergeCell ref="K40:K43"/>
+    <mergeCell ref="L40:L43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="I25:I28"/>
+    <mergeCell ref="I30:I33"/>
+    <mergeCell ref="I35:I38"/>
+    <mergeCell ref="I40:I43"/>
+    <mergeCell ref="J10:J13"/>
+    <mergeCell ref="K10:K13"/>
+    <mergeCell ref="L10:L13"/>
+    <mergeCell ref="K15:K18"/>
+    <mergeCell ref="L15:L18"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="D47:J47"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:K49"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
